--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t xml:space="preserve">dataset</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">1+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
   </si>
   <si>
     <r>
@@ -91,10 +94,13 @@
     <t xml:space="preserve">g2</t>
   </si>
   <si>
-    <t xml:space="preserve">2+5</t>
+    <t xml:space="preserve">2+3+2</t>
   </si>
   <si>
     <t xml:space="preserve">g1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+2+3</t>
   </si>
   <si>
     <t xml:space="preserve">4+3</t>
@@ -260,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="18.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,6 +344,9 @@
       <c r="M2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="N2" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -361,6 +370,9 @@
       </c>
       <c r="M3" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -393,16 +405,16 @@
         <v>4.81</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>0.9759</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,10 +436,13 @@
       </c>
       <c r="J5" s="2"/>
       <c r="L5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,7 +463,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,10 +490,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="245.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +529,7 @@
         <v>4.52</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>0.9659</v>
@@ -535,7 +559,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.4</v>
@@ -553,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.4</v>
@@ -581,9 +605,6 @@
       <c r="K13" s="3" t="n">
         <v>0.8232</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="1" t="e">
@@ -609,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.4</v>
@@ -627,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.4</v>
@@ -652,18 +673,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="1" t="e">
         <f aca="false">F21/E21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.4</v>
@@ -671,6 +692,7 @@
       <c r="D22" s="1" t="n">
         <v>0.2</v>
       </c>
+      <c r="E22" s="5"/>
       <c r="G22" s="1" t="e">
         <f aca="false">F22/E22</f>
         <v>#DIV/0!</v>
@@ -690,10 +712,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.3</v>
@@ -705,16 +727,13 @@
         <f aca="false">F26/E26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.3</v>
@@ -741,25 +760,19 @@
       <c r="K27" s="3" t="n">
         <v>0.3171</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.2</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.4</v>
@@ -800,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0.4</v>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t xml:space="preserve">dataset</t>
   </si>
@@ -64,52 +64,25 @@
     <t xml:space="preserve">g4</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1+6</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">{1: 100, 2: 160, 3: 134, 4: 82, 5: 66, 6: 48, 7: 25, 8: 23, 9: 25, 10: 17, 11: 9, 12: 7, 13: 7, 14: 8, 15: 7, 16: 6, 17: 4, 18: 4, 19: 4, 20: 3, 21: 1, 22: 2, 24: 2, 25: 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, 29: 1, 42: 1}</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+3+2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+2+3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 21, 10: 12, 6: 29, 2: 145, 8: 29, 4: 78, 5: 46, 3: 76, 1: 71, 14: 2, 9: 8, 12: 8, 16: 6, 38: 1, 15: 1, 11: 10, 18: 2, 13: 6, 21: 3, 19: 1, 17: 1, 20: 1, 32: 1}</t>
-  </si>
-  <si>
     <t xml:space="preserve">multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">multiple (no hard sample)</t>
@@ -144,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -165,12 +138,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <family val="0"/>
     </font>
     <font>
@@ -224,13 +191,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -245,7 +216,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,14 +239,14 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="18.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="18.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.67"/>
@@ -338,14 +309,12 @@
         <f aca="false">F2/E2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,14 +334,12 @@
         <f aca="false">F3/E3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="243.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,33 +355,16 @@
       <c r="D4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">F4/E4</f>
-        <v>0.859608745684695</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>0.9759</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>15</v>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,15 +384,13 @@
         <f aca="false">F5/E5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="J5" s="3"/>
+      <c r="L5" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,14 +410,14 @@
         <f aca="false">F6/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>15</v>
+      <c r="L6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,14 +437,14 @@
         <f aca="false">F7/E7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>15</v>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="245.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,35 +460,45 @@
       <c r="D8" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">F8/E8</f>
-        <v>0.642117376294592</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0.9659</v>
+      <c r="H8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.35</v>
+      </c>
       <c r="G9" s="1" t="e">
         <f aca="false">F9/E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="L9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="1" t="e">
@@ -554,12 +512,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.4</v>
@@ -571,13 +529,16 @@
         <f aca="false">F12/E12</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.4</v>
@@ -598,11 +559,11 @@
       <c r="H13" s="1" t="n">
         <v>2.88</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <v>0.3681</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3" t="n">
+      <c r="J13" s="6"/>
+      <c r="K13" s="4" t="n">
         <v>0.8232</v>
       </c>
     </row>
@@ -611,7 +572,7 @@
         <f aca="false">F14/E14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="1" t="e">
@@ -630,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>0.4</v>
@@ -648,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>0.4</v>
@@ -684,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>0.4</v>
@@ -692,7 +653,7 @@
       <c r="D22" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="G22" s="1" t="e">
         <f aca="false">F22/E22</f>
         <v>#DIV/0!</v>
@@ -710,12 +671,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="1" t="e">
+        <f aca="false">F25/E25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>0.3</v>
@@ -730,10 +697,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.3</v>
@@ -742,23 +709,23 @@
         <v>0.2</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>1038</v>
+        <v>932</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>820</v>
+        <v>672</v>
       </c>
       <c r="G27" s="1" t="n">
         <f aca="false">F27/E27</f>
-        <v>0.789980732177264</v>
+        <v>0.721030042918455</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>0.8427</v>
-      </c>
-      <c r="K27" s="3" t="n">
-        <v>0.3171</v>
+        <v>5.02</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>0.8581</v>
+      </c>
+      <c r="K27" s="4" t="n">
+        <v>0.1756</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,13 +733,32 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>0.4</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0.2</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <f aca="false">F28/E28</f>
+        <v>0.757192174913694</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K28" s="4" t="n">
+        <v>0.0486</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>0.4</v>
@@ -799,13 +785,13 @@
         <v>0.754890678941312</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="I29" s="3" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="K29" s="3" t="n">
-        <v>0.279</v>
+        <v>5.03</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>0.9278</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0.4</v>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>dataset</t>
   </si>
@@ -68,21 +68,12 @@
     <t>1+6</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>{5: 0.6, 3: 0.43205128205128207, 6: 0.6730769230769231, 8: 0.7474358974358974, 14: 0.8807692307692307, 4: 0.5294871794871795, 10: 0.8141025641025641, 13: 0.8641025641025641, 7: 0.7141025641025641, 2: 0.2935897435897436, 43: 0.958974358974359, 12: 0.8512820512820513, 1: 0.1141025641025641, 17: 0.9115384615384615, 20: 0.9282051282051282, 11: 0.8384615384615385, 9: 0.7833333333333333, 24: 0.9384615384615385, 15: 0.8884615384615384, 23: 0.9358974358974359, 16: 0.9012820512820513, 25: 0.9435897435897436, 33: 0.9564102564102565, 18: 0.9141025641025641, 19: 0.9179487179487179, 32: 0.9538461538461539, 29: 0.9461538461538461, 21: 0.9307692307692308, 28: 0.9448717948717948, 34: 0.9576923076923077, 22: 0.9333333333333333}</t>
   </si>
   <si>
     <t>{4: 0.6576923076923077, 3: 0.4653846153846154, 5: 0.7782051282051282, 2: 0.24615384615384617, 6: 0.8333333333333334, 1: 0.023076923076923078, 8: 0.9564102564102565, 7: 0.8641025641025641, 9: 0.958974358974359}</t>
   </si>
   <si>
-    <t>g4,g1</t>
-  </si>
-  <si>
-    <t>4+3(1,1,1)</t>
-  </si>
-  <si>
     <t>{7: 0.7309236947791165, 16: 0.9156626506024096, 5: 0.6358768406961178, 6: 0.6867469879518072, 14: 0.8808567603748326, 20: 0.92904953145917, 8: 0.7657295850066934, 3: 0.46987951807228917, 9: 0.8032128514056225, 13: 0.8741633199464525, 42: 0.965194109772423, 39: 0.963855421686747, 1: 0.12985274431057564, 2: 0.32663989290495316, 15: 0.8995983935742972, 4: 0.5662650602409639, 12: 0.8554216867469879, 11: 0.8393574297188755, 31: 0.9504685408299867, 26: 0.9424364123159303, 21: 0.9357429718875502, 32: 0.9585006693440429, 29: 0.9491298527443106, 33: 0.9598393574297188, 28: 0.9464524765729585, 18: 0.9210174029451138, 10: 0.8246318607764391, 38: 0.9625167336010709, 25: 0.9397590361445783, 23: 0.9370816599732262, 19: 0.9250334672021419, 24: 0.9384203480589023, 35: 0.9611780455153949}</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>{5: 0.7784011220196353, 6: 0.8457223001402524, 2: 0.28190743338008417, 3: 0.5217391304347826, 4: 0.6718092566619915, 8: 0.9495091164095372, 1: 0.02244039270687237, 7: 0.8653576437587658, 9: 0.9551192145862553}</t>
   </si>
   <si>
-    <t>6+1</t>
-  </si>
-  <si>
     <t>{3: 0.46200607902735563, 4: 0.5638297872340425, 7: 0.7370820668693009, 12: 0.8662613981762918, 26: 0.9544072948328267, 10: 0.8252279635258358, 1: 0.13829787234042554, 15: 0.9027355623100304, 9: 0.7887537993920972, 8: 0.7598784194528876, 2: 0.3221884498480243, 11: 0.8449848024316109, 13: 0.8799392097264438, 6: 0.6975683890577508, 23: 0.952887537993921, 21: 0.9483282674772037, 5: 0.6428571428571429, 17: 0.9148936170212766, 14: 0.8905775075987842, 19: 0.9376899696048632, 18: 0.9285714285714286, 16: 0.9088145896656535, 20: 0.9422492401215805, 33: 0.9604863221884499, 36: 0.9620060790273556, 28: 0.9559270516717325, 37: 0.9635258358662614, 29: 0.9574468085106383, 32: 0.958966565349544}</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t>{4: 0.7023026315789473, 7: 0.9013157894736842, 3: 0.5230263157894737, 2: 0.30098684210526316, 5: 0.8075657894736842, 8: 0.9572368421052632, 6: 0.8667763157894737, 1: 0.03453947368421053, 9: 0.9588815789473685}</t>
   </si>
   <si>
-    <t>1+2+4</t>
-  </si>
-  <si>
     <t>{1: 0.12007168458781362, 3: 0.4551971326164875, 4: 0.546594982078853, 11: 0.8351254480286738, 5: 0.6254480286738351, 8: 0.7706093189964157, 12: 0.8458781362007168, 2: 0.31899641577060933, 13: 0.8655913978494624, 6: 0.7043010752688172, 7: 0.7347670250896058, 22: 0.9444444444444444, 33: 0.96415770609319, 9: 0.7992831541218638, 17: 0.9157706093189965, 26: 0.953405017921147, 19: 0.931899641577061, 14: 0.8853046594982079, 10: 0.8189964157706093, 37: 0.9659498207885304, 16: 0.9032258064516129, 24: 0.9498207885304659, 18: 0.9283154121863799, 20: 0.9336917562724014, 23: 0.9480286738351255, 21: 0.9408602150537635, 32: 0.9605734767025089, 28: 0.956989247311828, 50: 0.967741935483871, 15: 0.8888888888888888, 25: 0.9516129032258065, 29: 0.9587813620071685}</t>
   </si>
   <si>
@@ -122,7 +107,22 @@
     <t>MOT20</t>
   </si>
   <si>
-    <t>multiple</t>
+    <t>multiple hs: 0.2</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.3</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.4</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.5</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.6</t>
   </si>
   <si>
     <t>multiple (no hard sample)</t>
@@ -154,9 +154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -187,7 +187,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,102 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,21 +307,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,11 +328,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -351,19 +351,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,163 +477,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +542,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,15 +583,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,15 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,138 +647,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="18.85"/>
@@ -1381,9 +1381,7 @@
       <c r="N10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
@@ -1415,23 +1413,17 @@
         <v>5.76</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="L11" s="5">
         <v>0.959</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
@@ -1463,10 +1455,10 @@
         <v>5.66</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L12" s="6">
         <v>0.9652</v>
@@ -1504,21 +1496,17 @@
         <v>5.91</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L13" s="5">
         <v>0.9551</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
@@ -1550,21 +1538,17 @@
         <v>5.4</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L14" s="5">
         <v>0.9635</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
@@ -1596,23 +1580,19 @@
         <v>5.31</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L15" s="5">
         <v>0.9589</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1642,28 +1622,21 @@
         <v>5.71</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L16" s="5">
         <v>0.9677</v>
       </c>
-      <c r="M16"/>
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="17" ht="14.9" customHeight="true" spans="13:13">
       <c r="M17" s="7"/>
     </row>
     <row r="18" ht="14.9" customHeight="true" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -1688,7 +1661,7 @@
     </row>
     <row r="19" ht="14.9" customHeight="true" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -1713,7 +1686,7 @@
     </row>
     <row r="20" ht="14.9" customHeight="true" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1738,7 +1711,7 @@
     </row>
     <row r="21" ht="14.9" customHeight="true" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -1763,7 +1736,7 @@
     </row>
     <row r="22" ht="14.9" customHeight="true" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -1788,7 +1761,7 @@
     </row>
     <row r="23" ht="14.9" customHeight="true" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -1813,7 +1786,7 @@
     </row>
     <row r="24" ht="14.9" customHeight="true" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
@@ -1841,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>0.4</v>
@@ -1869,12 +1842,12 @@
         <v>0.7927</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>0.4</v>
@@ -1882,38 +1855,79 @@
       <c r="D28" s="1">
         <v>0.2</v>
       </c>
-      <c r="E28" s="1">
-        <v>869</v>
-      </c>
-      <c r="F28" s="1">
-        <v>656</v>
-      </c>
-      <c r="G28" s="1">
-        <f>F28/E28</f>
-        <v>0.754890678941312</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2.88</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0.3681</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="5">
-        <v>0.8232</v>
-      </c>
-    </row>
-    <row r="29" spans="10:11">
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="H28" s="3"/>
+      <c r="I28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1">
         <v>0.4</v>
@@ -1921,41 +1935,59 @@
       <c r="D32" s="1">
         <v>0.2</v>
       </c>
-      <c r="G32" s="1" t="e">
+      <c r="E32" s="1">
+        <v>869</v>
+      </c>
+      <c r="F32" s="1">
+        <v>656</v>
+      </c>
+      <c r="G32" s="1">
         <f>F32/E32</f>
+        <v>0.754890678941312</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.3681</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="5">
+        <v>0.8232</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="1" t="e">
+        <f>F36/E36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="G33" s="1" t="e">
-        <f>F33/E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
         <v>0.4</v>
@@ -1963,140 +1995,204 @@
       <c r="D37" s="1">
         <v>0.2</v>
       </c>
-      <c r="E37" s="3"/>
       <c r="G37" s="1" t="e">
         <f>F37/E37</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D41" s="1">
         <v>0.2</v>
       </c>
+      <c r="E41" s="3"/>
       <c r="G41" s="1" t="e">
         <f>F41/E41</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F45" s="1">
+        <v>820</v>
+      </c>
+      <c r="G45" s="1">
+        <f>F45/E45</f>
+        <v>0.789980732177264</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="I45" s="1">
+        <v>18.42</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.0817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C46" s="1">
         <v>0.3</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D46" s="1">
         <v>0.2</v>
       </c>
-      <c r="E42" s="1">
-        <v>932</v>
-      </c>
-      <c r="F42" s="1">
-        <v>672</v>
-      </c>
-      <c r="G42" s="1">
-        <f>F42/E42</f>
-        <v>0.721030042918455</v>
-      </c>
-      <c r="H42" s="1">
-        <v>5.02</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0.8581</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0.1756</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
+      <c r="E46" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F46" s="1">
+        <v>820</v>
+      </c>
+      <c r="G46" s="1">
+        <f>F46/E46</f>
+        <v>0.789980732177264</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.8633</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.2732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C47" s="1">
         <v>0.4</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D47" s="1">
         <v>0.2</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E47" s="1">
         <v>869</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F47" s="1">
         <v>658</v>
       </c>
-      <c r="G43" s="1">
-        <f>F43/E43</f>
+      <c r="G47" s="1">
+        <f>F47/E47</f>
         <v>0.757192174913694</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H47" s="1">
         <v>5.01</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I47" s="1">
         <v>20.6</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L47" s="5">
         <v>0.0486</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>869</v>
-      </c>
-      <c r="F44" s="1">
-        <v>656</v>
-      </c>
-      <c r="G44" s="1">
-        <f>F44/E44</f>
-        <v>0.754890678941312</v>
-      </c>
-      <c r="H44" s="1">
-        <v>5.03</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0.9278</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1">
         <v>0.4</v>
       </c>
       <c r="D48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>869</v>
+      </c>
+      <c r="F48" s="1">
+        <v>656</v>
+      </c>
+      <c r="G48" s="1">
+        <f>F48/E48</f>
+        <v>0.754890678941312</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.9278</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D54" s="1">
         <v>0.2</v>
       </c>
     </row>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>dataset</t>
   </si>
@@ -65,7 +65,7 @@
     <t>g4</t>
   </si>
   <si>
-    <t>1+6</t>
+    <t>1+1+5</t>
   </si>
   <si>
     <t>{5: 0.6, 3: 0.43205128205128207, 6: 0.6730769230769231, 8: 0.7474358974358974, 14: 0.8807692307692307, 4: 0.5294871794871795, 10: 0.8141025641025641, 13: 0.8641025641025641, 7: 0.7141025641025641, 2: 0.2935897435897436, 43: 0.958974358974359, 12: 0.8512820512820513, 1: 0.1141025641025641, 17: 0.9115384615384615, 20: 0.9282051282051282, 11: 0.8384615384615385, 9: 0.7833333333333333, 24: 0.9384615384615385, 15: 0.8884615384615384, 23: 0.9358974358974359, 16: 0.9012820512820513, 25: 0.9435897435897436, 33: 0.9564102564102565, 18: 0.9141025641025641, 19: 0.9179487179487179, 32: 0.9538461538461539, 29: 0.9461538461538461, 21: 0.9307692307692308, 28: 0.9448717948717948, 34: 0.9576923076923077, 22: 0.9333333333333333}</t>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>single (det)</t>
+  </si>
+  <si>
+    <t>ByteTrack</t>
   </si>
 </sst>
 </file>
@@ -155,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -195,6 +198,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +225,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,11 +291,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,107 +339,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,31 +354,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,85 +498,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,61 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,11 +566,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +592,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,155 +645,140 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1126,15 +1129,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="18.85"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="1" customWidth="true"/>
+    <col min="1" max="1" width="11.0873015873016" style="1" customWidth="true"/>
     <col min="2" max="3" width="25.2063492063492" style="1" customWidth="true"/>
     <col min="4" max="4" width="7.11111111111111" style="1" customWidth="true"/>
     <col min="5" max="5" width="16.8888888888889" style="1" customWidth="true"/>
@@ -1855,6 +1858,16 @@
       <c r="D28" s="1">
         <v>0.2</v>
       </c>
+      <c r="E28" s="1">
+        <v>869</v>
+      </c>
+      <c r="F28" s="1">
+        <v>656</v>
+      </c>
+      <c r="G28" s="1">
+        <f>F28/E28</f>
+        <v>0.754890678941312</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="5"/>
       <c r="L28" s="5"/>
@@ -1875,6 +1888,16 @@
       <c r="D29" s="1">
         <v>0.2</v>
       </c>
+      <c r="E29" s="1">
+        <v>869</v>
+      </c>
+      <c r="F29" s="1">
+        <v>656</v>
+      </c>
+      <c r="G29" s="1">
+        <f>F29/E29</f>
+        <v>0.754890678941312</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="5"/>
       <c r="L29" s="5"/>
@@ -1895,9 +1918,21 @@
       <c r="D30" s="1">
         <v>0.2</v>
       </c>
+      <c r="E30" s="1">
+        <v>869</v>
+      </c>
+      <c r="F30" s="1">
+        <v>656</v>
+      </c>
+      <c r="G30" s="1">
+        <f>F30/E30</f>
+        <v>0.754890678941312</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="5">
+        <v>0.7957</v>
+      </c>
       <c r="M30" t="s">
         <v>32</v>
       </c>
@@ -1915,9 +1950,21 @@
       <c r="D31" s="1">
         <v>0.2</v>
       </c>
+      <c r="E31" s="1">
+        <v>869</v>
+      </c>
+      <c r="F31" s="1">
+        <v>656</v>
+      </c>
+      <c r="G31" s="1">
+        <f>F31/E31</f>
+        <v>0.754890678941312</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="5">
+        <v>0.8247</v>
+      </c>
       <c r="M31" t="s">
         <v>32</v>
       </c>
@@ -2003,7 +2050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -2021,6 +2068,9 @@
         <f>F41/E41</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="M41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
@@ -2042,7 +2092,7 @@
         <v>820</v>
       </c>
       <c r="G45" s="1">
-        <f>F45/E45</f>
+        <f t="shared" ref="G45:G50" si="3">F45/E45</f>
         <v>0.789980732177264</v>
       </c>
       <c r="H45" s="1">
@@ -2075,7 +2125,7 @@
         <v>820</v>
       </c>
       <c r="G46" s="1">
-        <f>F46/E46</f>
+        <f t="shared" si="3"/>
         <v>0.789980732177264</v>
       </c>
       <c r="H46" s="1">
@@ -2108,7 +2158,7 @@
         <v>658</v>
       </c>
       <c r="G47" s="1">
-        <f>F47/E47</f>
+        <f t="shared" si="3"/>
         <v>0.757192174913694</v>
       </c>
       <c r="H47" s="1">
@@ -2141,7 +2191,7 @@
         <v>656</v>
       </c>
       <c r="G48" s="1">
-        <f>F48/E48</f>
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
       <c r="H48" s="1">
@@ -2154,7 +2204,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2167,8 +2217,13 @@
       <c r="D49" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="G49" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>29</v>
       </c>
@@ -2181,6 +2236,28 @@
       <c r="D50" s="1">
         <v>0.2</v>
       </c>
+      <c r="E50" s="1">
+        <v>2067</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1858</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="3"/>
+        <v>0.898887276245767</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.9889</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.6237</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="3"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
@@ -2194,6 +2271,25 @@
       </c>
       <c r="D54" s="1">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17839" windowHeight="16818" tabRatio="500"/>
+    <workbookView windowHeight="17112" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>dataset</t>
   </si>
@@ -177,7 +177,7 @@
     <t>g4</t>
   </si>
   <si>
-    <t>1+1+5</t>
+    <t>1+1+4+1</t>
   </si>
   <si>
     <t>single (rand)</t>
@@ -204,16 +204,25 @@
     <t>{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
   </si>
   <si>
-    <t>1+1+2</t>
-  </si>
-  <si>
     <t>single (det)</t>
   </si>
   <si>
-    <t>g2</t>
+    <t>{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
+  </si>
+  <si>
+    <t>{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
+  </si>
+  <si>
+    <t>{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
+  </si>
+  <si>
+    <t>{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
   </si>
   <si>
     <t>ByteTrack</t>
+  </si>
+  <si>
+    <t>g3</t>
   </si>
 </sst>
 </file>
@@ -221,10 +230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -267,16 +276,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -290,9 +299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +324,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,15 +374,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,50 +412,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,13 +433,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,61 +571,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,97 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +644,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,21 +705,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -714,135 +723,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1212,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
@@ -2163,7 +2172,7 @@
         <v>2.36</v>
       </c>
       <c r="I36" s="1">
-        <v>5.73</v>
+        <v>6.1</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>47</v>
@@ -2199,7 +2208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -2212,13 +2221,10 @@
       <c r="D38" s="1">
         <v>0.2</v>
       </c>
-      <c r="M38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>51</v>
@@ -2229,55 +2235,33 @@
       <c r="D41" s="1">
         <v>0.2</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="G41" s="1" t="e">
-        <f>F41/E41</f>
+      <c r="M41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="G42" s="1" t="e">
+        <f>F42/E42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" t="s">
         <v>52</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N42" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1038</v>
-      </c>
-      <c r="F45" s="1">
-        <v>820</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" ref="G45:G50" si="4">F45/E45</f>
-        <v>0.789980732177264</v>
-      </c>
-      <c r="H45" s="1">
-        <v>5.07</v>
-      </c>
-      <c r="I45" s="1">
-        <v>9.97</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0.0817</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2285,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1">
         <v>0.3</v>
@@ -2300,56 +2284,56 @@
         <v>820</v>
       </c>
       <c r="G46" s="1">
+        <f t="shared" ref="G46:G51" si="4">F46/E46</f>
+        <v>0.789980732177264</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5.07</v>
+      </c>
+      <c r="I46" s="1">
+        <v>9.97</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.0817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F47" s="1">
+        <v>820</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="4"/>
         <v>0.789980732177264</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <v>5.03</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I47" s="5">
         <v>0.8633</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L47" s="5">
         <v>0.2732</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>869</v>
-      </c>
-      <c r="F47" s="1">
-        <v>658</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="4"/>
-        <v>0.757192174913694</v>
-      </c>
-      <c r="H47" s="1">
-        <v>5.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>9.34</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0.0486</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2357,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1">
         <v>0.4</v>
@@ -2369,65 +2353,59 @@
         <v>869</v>
       </c>
       <c r="F48" s="1">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="4"/>
-        <v>0.754890678941312</v>
+        <v>0.757192174913694</v>
       </c>
       <c r="H48" s="1">
-        <v>5.03</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0.9278</v>
+        <v>5.01</v>
+      </c>
+      <c r="I48" s="1">
+        <v>9.34</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="L48" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>0.0486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D49" s="1">
         <v>0.2</v>
       </c>
       <c r="E49" s="1">
-        <v>2067</v>
+        <v>869</v>
       </c>
       <c r="F49" s="1">
-        <v>1892</v>
+        <v>656</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="4"/>
-        <v>0.915336236090953</v>
+        <v>0.754890678941312</v>
       </c>
       <c r="H49" s="1">
-        <v>5.18</v>
-      </c>
-      <c r="I49" s="1">
-        <v>7.71</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>61</v>
+        <v>5.03</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.9278</v>
       </c>
       <c r="L49" s="5">
-        <v>0.1538</v>
-      </c>
-      <c r="M49">
-        <v>37.66</v>
-      </c>
-      <c r="N49" t="s">
-        <v>62</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2435,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1">
         <v>0.3</v>
@@ -2447,95 +2425,230 @@
         <v>2067</v>
       </c>
       <c r="F50" s="1">
-        <v>1858</v>
+        <v>1892</v>
       </c>
       <c r="G50" s="1">
         <f t="shared" si="4"/>
+        <v>0.915336236090953</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7.71</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.1538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2067</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1858</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="4"/>
         <v>0.898887276245767</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <v>5.03</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I51" s="5">
         <v>0.9889</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L51" s="5">
         <v>0.6237</v>
       </c>
     </row>
-    <row r="52" spans="11:11">
-      <c r="K52" s="8"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="11:11">
+      <c r="K53" s="8"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F54" s="1">
+        <v>820</v>
+      </c>
+      <c r="G54" s="1">
+        <f>F54/E54</f>
+        <v>0.789980732177264</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="I54" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="1">
+      <c r="K54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.9756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E55" s="1">
+        <v>869</v>
+      </c>
+      <c r="F55" s="1">
+        <v>658</v>
+      </c>
+      <c r="G55" s="1">
+        <f>F55/E55</f>
+        <v>0.757192174913694</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>16.87</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.9696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1">
         <v>0.3</v>
       </c>
-      <c r="D53" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1" t="s">
+      <c r="D56" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G56" s="1" t="e">
+        <f>F56/E56</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G65" s="1" t="e">
+        <f>F65/E65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G66" s="1" t="e">
+        <f>F66/E66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" ht="15.65" customHeight="true" spans="1:5">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" ht="15.65" customHeight="true" spans="1:5">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -1,466 +1,1292 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="17839" windowHeight="16818" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
-  <si>
-    <t xml:space="preserve">dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf_thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iou thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total effective ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need attack ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attack rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame dict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2 dict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">success rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOT15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{37: 0.9524390243902439, 5: 0.6914634146341463, 4: 0.5951219512195122, 2: 0.33902439024390246, 11: 0.8963414634146342, 7: 0.8, 3: 0.4768292682926829, 1: 0.14390243902439023, 12: 0.9048780487804878, 18: 0.9390243902439024, 10: 0.8780487804878049, 20: 0.9463414634146341, 6: 0.75, 14: 0.9207317073170732, 8: 0.8329268292682926, 41: 0.9536585365853658, 9: 0.8609756097560975, 22: 0.95, 13: 0.9158536585365854, 19: 0.9426829268292682, 16: 0.9341463414634147, 15: 0.925609756097561, 21: 0.947560975609756, 25: 0.9512195121951219}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.22682926829268293, 5: 0.7573170731707317, 3: 0.42317073170731706, 4: 0.6146341463414634, 1: 0.03170731707317073, 7: 0.8853658536585366, 6: 0.8365853658536585, 8: 0.9512195121951219, 9: 0.9536585365853658}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.5337423312883436, 3: 0.4343558282208589, 13: 0.8723926380368098, 5: 0.5975460122699386, 14: 0.8871165644171779, 9: 0.7963190184049079, 16: 0.9067484662576687, 7: 0.7128834355828221, 10: 0.8134969325153374, 8: 0.7484662576687117, 1: 0.12147239263803682, 18: 0.9177914110429448, 6: 0.6613496932515337, 2: 0.3079754601226994, 22: 0.9361963190184049, 24: 0.9460122699386503, 26: 0.950920245398773, 11: 0.8441717791411043, 21: 0.9325153374233128, 15: 0.8957055214723927, 25: 0.9484662576687116, 12: 0.8576687116564418, 23: 0.943558282208589, 32: 0.9607361963190184, 19: 0.9202453987730062, 20: 0.9239263803680982, 34: 0.9656441717791411, 27: 0.9521472392638037, 38: 0.9668711656441717, 33: 0.9631901840490797, 54: 0.9693251533742331, 17: 0.9116564417177914, 28: 0.9533742331288344, 41: 0.9680981595092024}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.652760736196319, 5: 0.7496932515337423, 3: 0.47116564417177914, 8: 0.9631901840490797, 6: 0.8233128834355828, 2: 0.24171779141104294, 1: 0.025766871165644172, 7: 0.8539877300613496, 9: 0.9693251533742331}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.6, 3: 0.43205128205128207, 6: 0.6730769230769231, 8: 0.7474358974358974, 14: 0.8807692307692307, 4: 0.5294871794871795, 10: 0.8141025641025641, 13: 0.8641025641025641, 7: 0.7141025641025641, 2: 0.2935897435897436, 43: 0.958974358974359, 12: 0.8512820512820513, 1: 0.1141025641025641, 17: 0.9115384615384615, 20: 0.9282051282051282, 11: 0.8384615384615385, 9: 0.7833333333333333, 24: 0.9384615384615385, 15: 0.8884615384615384, 23: 0.9358974358974359, 16: 0.9012820512820513, 25: 0.9435897435897436, 33: 0.9564102564102565, 18: 0.9141025641025641, 19: 0.9179487179487179, 32: 0.9538461538461539, 29: 0.9461538461538461, 21: 0.9307692307692308, 28: 0.9448717948717948, 34: 0.9576923076923077, 22: 0.9333333333333333}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.6576923076923077, 3: 0.4653846153846154, 5: 0.7782051282051282, 2: 0.24615384615384617, 6: 0.8333333333333334, 1: 0.023076923076923078, 8: 0.9564102564102565, 7: 0.8641025641025641, 9: 0.958974358974359}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.7309236947791165, 16: 0.9156626506024096, 5: 0.6358768406961178, 6: 0.6867469879518072, 14: 0.8808567603748326, 20: 0.92904953145917, 8: 0.7657295850066934, 3: 0.46987951807228917, 9: 0.8032128514056225, 13: 0.8741633199464525, 42: 0.965194109772423, 39: 0.963855421686747, 1: 0.12985274431057564, 2: 0.32663989290495316, 15: 0.8995983935742972, 4: 0.5662650602409639, 12: 0.8554216867469879, 11: 0.8393574297188755, 31: 0.9504685408299867, 26: 0.9424364123159303, 21: 0.9357429718875502, 32: 0.9585006693440429, 29: 0.9491298527443106, 33: 0.9598393574297188, 28: 0.9464524765729585, 18: 0.9210174029451138, 10: 0.8246318607764391, 38: 0.9625167336010709, 25: 0.9397590361445783, 23: 0.9370816599732262, 19: 0.9250334672021419, 24: 0.9384203480589023, 35: 0.9611780455153949}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3: 0.49531459170013387, 4: 0.6586345381526104, 5: 0.7630522088353414, 2: 0.24096385542168675, 7: 0.8661311914323963, 1: 0.025435073627844713, 6: 0.8299866131191432, 8: 0.963855421686747, 9: 0.965194109772423}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{24: 0.9284712482468443, 9: 0.7727910238429172, 4: 0.5385694249649369, 6: 0.6619915848527349, 14: 0.879382889200561, 5: 0.6157082748948106, 20: 0.9102384291725105, 12: 0.8359046283309958, 1: 0.13043478260869565, 10: 0.8008415147265077, 2: 0.3085553997194951, 3: 0.426367461430575, 8: 0.729312762973352, 11: 0.820476858345021, 21: 0.9200561009817672, 17: 0.8976157082748948, 32: 0.9453015427769986, 31: 0.9396914446002805, 16: 0.8934081346423562, 22: 0.9242636746143057, 18: 0.9004207573632539, 7: 0.697054698457223, 13: 0.8583450210378681, 27: 0.9340813464235624, 33: 0.9495091164095372, 25: 0.9312762973352033, 19: 0.9046283309957924, 34: 0.9509116409537167, 15: 0.8877980364656382, 30: 0.9368863955119214, 23: 0.9256661991584852, 29: 0.9354838709677419, 60: 0.9551192145862553, 35: 0.9523141654978962, 36: 0.9537166900420757}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.7784011220196353, 6: 0.8457223001402524, 2: 0.28190743338008417, 3: 0.5217391304347826, 4: 0.6718092566619915, 8: 0.9495091164095372, 1: 0.02244039270687237, 7: 0.8653576437587658, 9: 0.9551192145862553}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3: 0.46200607902735563, 4: 0.5638297872340425, 7: 0.7370820668693009, 12: 0.8662613981762918, 26: 0.9544072948328267, 10: 0.8252279635258358, 1: 0.13829787234042554, 15: 0.9027355623100304, 9: 0.7887537993920972, 8: 0.7598784194528876, 2: 0.3221884498480243, 11: 0.8449848024316109, 13: 0.8799392097264438, 6: 0.6975683890577508, 23: 0.952887537993921, 21: 0.9483282674772037, 5: 0.6428571428571429, 17: 0.9148936170212766, 14: 0.8905775075987842, 19: 0.9376899696048632, 18: 0.9285714285714286, 16: 0.9088145896656535, 20: 0.9422492401215805, 33: 0.9604863221884499, 36: 0.9620060790273556, 28: 0.9559270516717325, 37: 0.9635258358662614, 29: 0.9574468085106383, 32: 0.958966565349544}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.6975683890577508, 8: 0.9635258358662614, 2: 0.3069908814589666, 5: 0.7963525835866262, 6: 0.8541033434650456, 3: 0.5501519756838906, 1: 0.025835866261398176, 7: 0.8936170212765957}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 0.1299342105263158, 2: 0.31414473684210525, 4: 0.5838815789473685, 5: 0.649671052631579, 10: 0.8404605263157895, 6: 0.7055921052631579, 8: 0.787828947368421, 9: 0.8223684210526315, 7: 0.743421052631579, 12: 0.868421052631579, 3: 0.45394736842105265, 16: 0.9144736842105263, 15: 0.9078947368421053, 21: 0.9358552631578947, 11: 0.8569078947368421, 33: 0.9539473684210527, 26: 0.9424342105263158, 13: 0.8782894736842105, 14: 0.8980263157894737, 38: 0.9572368421052632, 17: 0.9194078947368421, 30: 0.944078947368421, 32: 0.9490131578947368, 19: 0.9292763157894737, 34: 0.9555921052631579, 18: 0.9210526315789473, 41: 0.9588815789473685, 20: 0.930921052631579, 24: 0.9391447368421053, 22: 0.9375}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.7023026315789473, 7: 0.9013157894736842, 3: 0.5230263157894737, 2: 0.30098684210526316, 5: 0.8075657894736842, 8: 0.9572368421052632, 6: 0.8667763157894737, 1: 0.03453947368421053, 9: 0.9588815789473685}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 0.12007168458781362, 3: 0.4551971326164875, 4: 0.546594982078853, 11: 0.8351254480286738, 5: 0.6254480286738351, 8: 0.7706093189964157, 12: 0.8458781362007168, 2: 0.31899641577060933, 13: 0.8655913978494624, 6: 0.7043010752688172, 7: 0.7347670250896058, 22: 0.9444444444444444, 33: 0.96415770609319, 9: 0.7992831541218638, 17: 0.9157706093189965, 26: 0.953405017921147, 19: 0.931899641577061, 14: 0.8853046594982079, 10: 0.8189964157706093, 37: 0.9659498207885304, 16: 0.9032258064516129, 24: 0.9498207885304659, 18: 0.9283154121863799, 20: 0.9336917562724014, 23: 0.9480286738351255, 21: 0.9408602150537635, 32: 0.9605734767025089, 28: 0.956989247311828, 50: 0.967741935483871, 15: 0.8888888888888888, 25: 0.9516129032258065, 29: 0.9587813620071685}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.8315412186379928, 8: 0.967741935483871, 2: 0.3172043010752688, 3: 0.5412186379928315, 6: 0.8853046594982079, 4: 0.7401433691756273, 1: 0.02867383512544803, 7: 0.9354838709677419}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple hs: 0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple hs: 0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.37%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple hs: 0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.81%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.62%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple hs: 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple hs: 0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple (no hard sample)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (no failure noise)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{10: 0.8292682926829268, 3: 0.5195121951219512, 5: 0.6682926829268293, 2: 0.3780487804878049, 1: 0.17804878048780487, 34: 0.8792682926829268, 6: 0.7097560975609756, 18: 0.8695121951219512, 9: 0.8097560975609757, 4: 0.6036585365853658, 7: 0.7463414634146341, 8: 0.7817073170731708, 69: 0.8817073170731707, 11: 0.8365853658536585, 31: 0.8768292682926829, 12: 0.8439024390243902, 14: 0.8560975609756097, 13: 0.85, 16: 0.8646341463414634, 17: 0.8658536585365854, 15: 0.8621951219512195, 19: 0.8719512195121951, 32: 0.8780487804878049, 25: 0.875609756097561, 21: 0.8731707317073171, 41: 0.8804878048780488}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.3804878048780488, 3: 0.6731707317073171, 4: 0.823170731707317, 1: 0.045121951219512194, 5: 0.8621951219512195, 6: 0.8695121951219512, 7: 0.8780487804878049, 8: 0.8817073170731707}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>conf_thr</t>
+  </si>
+  <si>
+    <t>iou thr</t>
+  </si>
+  <si>
+    <t>total effective ids</t>
+  </si>
+  <si>
+    <t>need attack ids</t>
+  </si>
+  <si>
+    <t>attack rate</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>avg frame</t>
+  </si>
+  <si>
+    <t>frame dict</t>
+  </si>
+  <si>
+    <t>l2 dict</t>
+  </si>
+  <si>
+    <t>success rate</t>
+  </si>
+  <si>
+    <t>MOT15</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>{37: 0.9524390243902439, 5: 0.6914634146341463, 4: 0.5951219512195122, 2: 0.33902439024390246, 11: 0.8963414634146342, 7: 0.8, 3: 0.4768292682926829, 1: 0.14390243902439023, 12: 0.9048780487804878, 18: 0.9390243902439024, 10: 0.8780487804878049, 20: 0.9463414634146341, 6: 0.75, 14: 0.9207317073170732, 8: 0.8329268292682926, 41: 0.9536585365853658, 9: 0.8609756097560975, 22: 0.95, 13: 0.9158536585365854, 19: 0.9426829268292682, 16: 0.9341463414634147, 15: 0.925609756097561, 21: 0.947560975609756, 25: 0.9512195121951219}</t>
+  </si>
+  <si>
+    <t>{2: 0.22682926829268293, 5: 0.7573170731707317, 3: 0.42317073170731706, 4: 0.6146341463414634, 1: 0.03170731707317073, 7: 0.8853658536585366, 6: 0.8365853658536585, 8: 0.9512195121951219, 9: 0.9536585365853658}</t>
+  </si>
+  <si>
+    <t>MOT17</t>
+  </si>
+  <si>
+    <t>{4: 0.5337423312883436, 3: 0.4343558282208589, 13: 0.8723926380368098, 5: 0.5975460122699386, 14: 0.8871165644171779, 9: 0.7963190184049079, 16: 0.9067484662576687, 7: 0.7128834355828221, 10: 0.8134969325153374, 8: 0.7484662576687117, 1: 0.12147239263803682, 18: 0.9177914110429448, 6: 0.6613496932515337, 2: 0.3079754601226994, 22: 0.9361963190184049, 24: 0.9460122699386503, 26: 0.950920245398773, 11: 0.8441717791411043, 21: 0.9325153374233128, 15: 0.8957055214723927, 25: 0.9484662576687116, 12: 0.8576687116564418, 23: 0.943558282208589, 32: 0.9607361963190184, 19: 0.9202453987730062, 20: 0.9239263803680982, 34: 0.9656441717791411, 27: 0.9521472392638037, 38: 0.9668711656441717, 33: 0.9631901840490797, 54: 0.9693251533742331, 17: 0.9116564417177914, 28: 0.9533742331288344, 41: 0.9680981595092024}</t>
+  </si>
+  <si>
+    <t>{4: 0.652760736196319, 5: 0.7496932515337423, 3: 0.47116564417177914, 8: 0.9631901840490797, 6: 0.8233128834355828, 2: 0.24171779141104294, 1: 0.025766871165644172, 7: 0.8539877300613496, 9: 0.9693251533742331}</t>
+  </si>
+  <si>
+    <t>{5: 0.6, 3: 0.43205128205128207, 6: 0.6730769230769231, 8: 0.7474358974358974, 14: 0.8807692307692307, 4: 0.5294871794871795, 10: 0.8141025641025641, 13: 0.8641025641025641, 7: 0.7141025641025641, 2: 0.2935897435897436, 43: 0.958974358974359, 12: 0.8512820512820513, 1: 0.1141025641025641, 17: 0.9115384615384615, 20: 0.9282051282051282, 11: 0.8384615384615385, 9: 0.7833333333333333, 24: 0.9384615384615385, 15: 0.8884615384615384, 23: 0.9358974358974359, 16: 0.9012820512820513, 25: 0.9435897435897436, 33: 0.9564102564102565, 18: 0.9141025641025641, 19: 0.9179487179487179, 32: 0.9538461538461539, 29: 0.9461538461538461, 21: 0.9307692307692308, 28: 0.9448717948717948, 34: 0.9576923076923077, 22: 0.9333333333333333}</t>
+  </si>
+  <si>
+    <t>{4: 0.6576923076923077, 3: 0.4653846153846154, 5: 0.7782051282051282, 2: 0.24615384615384617, 6: 0.8333333333333334, 1: 0.023076923076923078, 8: 0.9564102564102565, 7: 0.8641025641025641, 9: 0.958974358974359}</t>
+  </si>
+  <si>
+    <t>{7: 0.7309236947791165, 16: 0.9156626506024096, 5: 0.6358768406961178, 6: 0.6867469879518072, 14: 0.8808567603748326, 20: 0.92904953145917, 8: 0.7657295850066934, 3: 0.46987951807228917, 9: 0.8032128514056225, 13: 0.8741633199464525, 42: 0.965194109772423, 39: 0.963855421686747, 1: 0.12985274431057564, 2: 0.32663989290495316, 15: 0.8995983935742972, 4: 0.5662650602409639, 12: 0.8554216867469879, 11: 0.8393574297188755, 31: 0.9504685408299867, 26: 0.9424364123159303, 21: 0.9357429718875502, 32: 0.9585006693440429, 29: 0.9491298527443106, 33: 0.9598393574297188, 28: 0.9464524765729585, 18: 0.9210174029451138, 10: 0.8246318607764391, 38: 0.9625167336010709, 25: 0.9397590361445783, 23: 0.9370816599732262, 19: 0.9250334672021419, 24: 0.9384203480589023, 35: 0.9611780455153949}</t>
+  </si>
+  <si>
+    <t>{3: 0.49531459170013387, 4: 0.6586345381526104, 5: 0.7630522088353414, 2: 0.24096385542168675, 7: 0.8661311914323963, 1: 0.025435073627844713, 6: 0.8299866131191432, 8: 0.963855421686747, 9: 0.965194109772423}</t>
+  </si>
+  <si>
+    <t>{24: 0.9284712482468443, 9: 0.7727910238429172, 4: 0.5385694249649369, 6: 0.6619915848527349, 14: 0.879382889200561, 5: 0.6157082748948106, 20: 0.9102384291725105, 12: 0.8359046283309958, 1: 0.13043478260869565, 10: 0.8008415147265077, 2: 0.3085553997194951, 3: 0.426367461430575, 8: 0.729312762973352, 11: 0.820476858345021, 21: 0.9200561009817672, 17: 0.8976157082748948, 32: 0.9453015427769986, 31: 0.9396914446002805, 16: 0.8934081346423562, 22: 0.9242636746143057, 18: 0.9004207573632539, 7: 0.697054698457223, 13: 0.8583450210378681, 27: 0.9340813464235624, 33: 0.9495091164095372, 25: 0.9312762973352033, 19: 0.9046283309957924, 34: 0.9509116409537167, 15: 0.8877980364656382, 30: 0.9368863955119214, 23: 0.9256661991584852, 29: 0.9354838709677419, 60: 0.9551192145862553, 35: 0.9523141654978962, 36: 0.9537166900420757}</t>
+  </si>
+  <si>
+    <t>{5: 0.7784011220196353, 6: 0.8457223001402524, 2: 0.28190743338008417, 3: 0.5217391304347826, 4: 0.6718092566619915, 8: 0.9495091164095372, 1: 0.02244039270687237, 7: 0.8653576437587658, 9: 0.9551192145862553}</t>
+  </si>
+  <si>
+    <t>{3: 0.46200607902735563, 4: 0.5638297872340425, 7: 0.7370820668693009, 12: 0.8662613981762918, 26: 0.9544072948328267, 10: 0.8252279635258358, 1: 0.13829787234042554, 15: 0.9027355623100304, 9: 0.7887537993920972, 8: 0.7598784194528876, 2: 0.3221884498480243, 11: 0.8449848024316109, 13: 0.8799392097264438, 6: 0.6975683890577508, 23: 0.952887537993921, 21: 0.9483282674772037, 5: 0.6428571428571429, 17: 0.9148936170212766, 14: 0.8905775075987842, 19: 0.9376899696048632, 18: 0.9285714285714286, 16: 0.9088145896656535, 20: 0.9422492401215805, 33: 0.9604863221884499, 36: 0.9620060790273556, 28: 0.9559270516717325, 37: 0.9635258358662614, 29: 0.9574468085106383, 32: 0.958966565349544}</t>
+  </si>
+  <si>
+    <t>{4: 0.6975683890577508, 8: 0.9635258358662614, 2: 0.3069908814589666, 5: 0.7963525835866262, 6: 0.8541033434650456, 3: 0.5501519756838906, 1: 0.025835866261398176, 7: 0.8936170212765957}</t>
+  </si>
+  <si>
+    <t>{1: 0.1299342105263158, 2: 0.31414473684210525, 4: 0.5838815789473685, 5: 0.649671052631579, 10: 0.8404605263157895, 6: 0.7055921052631579, 8: 0.787828947368421, 9: 0.8223684210526315, 7: 0.743421052631579, 12: 0.868421052631579, 3: 0.45394736842105265, 16: 0.9144736842105263, 15: 0.9078947368421053, 21: 0.9358552631578947, 11: 0.8569078947368421, 33: 0.9539473684210527, 26: 0.9424342105263158, 13: 0.8782894736842105, 14: 0.8980263157894737, 38: 0.9572368421052632, 17: 0.9194078947368421, 30: 0.944078947368421, 32: 0.9490131578947368, 19: 0.9292763157894737, 34: 0.9555921052631579, 18: 0.9210526315789473, 41: 0.9588815789473685, 20: 0.930921052631579, 24: 0.9391447368421053, 22: 0.9375}</t>
+  </si>
+  <si>
+    <t>{4: 0.7023026315789473, 7: 0.9013157894736842, 3: 0.5230263157894737, 2: 0.30098684210526316, 5: 0.8075657894736842, 8: 0.9572368421052632, 6: 0.8667763157894737, 1: 0.03453947368421053, 9: 0.9588815789473685}</t>
+  </si>
+  <si>
+    <t>{1: 0.12007168458781362, 3: 0.4551971326164875, 4: 0.546594982078853, 11: 0.8351254480286738, 5: 0.6254480286738351, 8: 0.7706093189964157, 12: 0.8458781362007168, 2: 0.31899641577060933, 13: 0.8655913978494624, 6: 0.7043010752688172, 7: 0.7347670250896058, 22: 0.9444444444444444, 33: 0.96415770609319, 9: 0.7992831541218638, 17: 0.9157706093189965, 26: 0.953405017921147, 19: 0.931899641577061, 14: 0.8853046594982079, 10: 0.8189964157706093, 37: 0.9659498207885304, 16: 0.9032258064516129, 24: 0.9498207885304659, 18: 0.9283154121863799, 20: 0.9336917562724014, 23: 0.9480286738351255, 21: 0.9408602150537635, 32: 0.9605734767025089, 28: 0.956989247311828, 50: 0.967741935483871, 15: 0.8888888888888888, 25: 0.9516129032258065, 29: 0.9587813620071685}</t>
+  </si>
+  <si>
+    <t>{5: 0.8315412186379928, 8: 0.967741935483871, 2: 0.3172043010752688, 3: 0.5412186379928315, 6: 0.8853046594982079, 4: 0.7401433691756273, 1: 0.02867383512544803, 7: 0.9354838709677419}</t>
+  </si>
+  <si>
+    <t>MOT20</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.2</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.3</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>36.37%</t>
+  </si>
+  <si>
+    <t>80.49%</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.4</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>35.81%</t>
+  </si>
+  <si>
+    <t>82.62%</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.5</t>
+  </si>
+  <si>
+    <t>multiple hs: 0.6</t>
+  </si>
+  <si>
+    <t>multiple (no hard sample)</t>
+  </si>
+  <si>
+    <t>single (no failure noise)</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>{10: 0.8292682926829268, 3: 0.5195121951219512, 5: 0.6682926829268293, 2: 0.3780487804878049, 1: 0.17804878048780487, 34: 0.8792682926829268, 6: 0.7097560975609756, 18: 0.8695121951219512, 9: 0.8097560975609757, 4: 0.6036585365853658, 7: 0.7463414634146341, 8: 0.7817073170731708, 69: 0.8817073170731707, 11: 0.8365853658536585, 31: 0.8768292682926829, 12: 0.8439024390243902, 14: 0.8560975609756097, 13: 0.85, 16: 0.8646341463414634, 17: 0.8658536585365854, 15: 0.8621951219512195, 19: 0.8719512195121951, 32: 0.8780487804878049, 25: 0.875609756097561, 21: 0.8731707317073171, 41: 0.8804878048780488}</t>
+  </si>
+  <si>
+    <t>{2: 0.3804878048780488, 3: 0.6731707317073171, 4: 0.823170731707317, 1: 0.045121951219512194, 5: 0.8621951219512195, 6: 0.8695121951219512, 7: 0.8780487804878049, 8: 0.8817073170731707}</t>
+  </si>
+  <si>
+    <t>88.17%</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>2+9</t>
   </si>
   <si>
     <t xml:space="preserve">{1: 0.15501519756838905, 11: 0.8115501519756839, 7: 0.7021276595744681, 5: 0.6231003039513677, 10: 0.7933130699088146, 22: 0.9027355623100304, 8: 0.7310030395136778, 4: 0.574468085106383, 2: 0.35106382978723405, 21: 0.8996960486322189, 6: 0.6747720364741642, 14: 0.8495440729483282, 50: 0.9376899696048632, 3: 0.4787234042553192, 9: 0.7537993920972644, 15: 0.8586626139817629, 18: 0.8814589665653495, 43: 0.9346504559270516, 31: 0.9240121580547113, 19: 0.8860182370820668, 26: 0.9148936170212766, 30: 0.9224924012158054, 13: 0.837386018237082, 20: 0.8905775075987842, 12: 0.8221884498480243, 32: 0.9285714285714286, 23: 0.9088145896656535, 42: 0.9331306990881459, 24: 0.9103343465045592, 16: 0.8647416413373861, 33: 0.9300911854103343, 28: 0.9179331306990881, 27: 0.9164133738601824, 57: 0.939209726443769, 17: 0.8677811550151976, 34: 0.9316109422492401, 29: 0.9194528875379939}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{4: 0.8753799392097265, 2: 0.43009118541033436, 3: 0.7006079027355623, 1: 0.03343465045592705, 5: 0.9240121580547113, 6: 0.9316109422492401, 7: 0.9376899696048632, 8: 0.939209726443769}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (no center leaping)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.5121212121212121, 1: 0.08787878787878788, 31: 0.8742424242424243, 18: 0.793939393939394, 11: 0.6803030303030303, 26: 0.8560606060606061, 14: 0.7303030303030303, 19: 0.8075757575757576, 58: 0.9166666666666666, 2: 0.15606060606060607, 12: 0.7015151515151515, 4: 0.3181818181818182, 16: 0.7621212121212121, 10: 0.646969696969697, 8: 0.5712121212121212, 5: 0.38484848484848483, 17: 0.7742424242424243, 80: 0.9212121212121213, 44: 0.9015151515151515, 6: 0.453030303030303, 21: 0.8272727272727273, 15: 0.7454545454545455, 3: 0.23787878787878788, 24: 0.843939393939394, 22: 0.8348484848484848, 49: 0.9090909090909091, 9: 0.6151515151515151, 13: 0.7121212121212122, 43: 0.9, 35: 0.8878787878787879, 53: 0.9136363636363637, 32: 0.8772727272727273, 70: 0.9181818181818182, 45: 0.9030303030303031, 34: 0.8833333333333333, 37: 0.8939393939393939, 36: 0.8909090909090909, 72: 0.9196969696969697, 28: 0.8606060606060606, 57: 0.9151515151515152, 30: 0.8651515151515151, 99: 0.9242424242424242, 146: 0.9257575757575758, 25: 0.8469696969696969, 33: 0.8803030303030303, 50: 0.9106060606060606, 23: 0.8378787878787879, 20: 0.8121212121212121, 41: 0.896969696969697, 52: 0.9121212121212121, 84: 0.9227272727272727, 46: 0.9045454545454545}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.33181818181818185, 6: 0.5984848484848485, 2: 0.10757575757575757, 7: 0.7696969696969697, 3: 0.19545454545454546, 8: 0.9257575757575758, 5: 0.46060606060606063, 1: 0.024242424242424242}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (rand)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{10: 0.05121951219512195, 11: 0.05365853658536585, 8: 0.045121951219512194, 2: 0.012195121951219513, 3: 0.01951219512195122, 4: 0.02195121951219512, 22: 0.07317073170731707, 17: 0.06829268292682927, 7: 0.036585365853658534, 18: 0.06951219512195123, 1: 0.007317073170731708, 12: 0.05609756097560976, 13: 0.05853658536585366, 14: 0.06341463414634146, 23: 0.07560975609756097, 15: 0.06463414634146342, 24: 0.07682926829268293, 6: 0.032926829268292684, 5: 0.025609756097560974, 19: 0.07073170731707316, 26: 0.07926829268292683, 21: 0.07195121951219512, 28: 0.08048780487804878, 25: 0.07804878048780488, 16: 0.06707317073170732, 29: 0.08170731707317073}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.07804878048780488, 6: 0.07073170731707316, 5: 0.03780487804878049, 8: 0.08170731707317073, 4: 0.006097560975609756, 3: 0.0012195121951219512}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple (rand)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{14: 0.034954407294832825, 1: 0.007598784194528876, 6: 0.0243161094224924, 25: 0.0486322188449848, 19: 0.041033434650455926, 4: 0.019756838905775075, 7: 0.02735562310030395, 16: 0.037993920972644375, 3: 0.016717325227963525, 9: 0.030395136778115502, 15: 0.0364741641337386, 23: 0.04559270516717325, 17: 0.03951367781155015, 12: 0.031914893617021274, 8: 0.028875379939209727, 2: 0.010638297872340425, 24: 0.04711246200607903, 21: 0.044072948328267476}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.022796352583586626, 6: 0.0425531914893617, 4: 0.004559270516717325, 7: 0.04711246200607903, 3: 0.00303951367781155, 8: 0.0486322188449848}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{9: 0.10200845665961945, 4: 0.06871035940803383, 7: 0.0919661733615222, 12: 0.11945031712473574, 14: 0.12949260042283298, 27: 0.15274841437632136, 24: 0.15169133192389006, 6: 0.08403805496828752, 3: 0.0554968287526427, 2: 0.04386892177589852, 11: 0.11469344608879492, 10: 0.10940803382663848, 19: 0.1427061310782241, 20: 0.14534883720930233, 1: 0.025898520084566595, 22: 0.14799154334038056, 18: 0.13953488372093023, 5: 0.07610993657505286, 21: 0.14693446088794926, 17: 0.136892177589852, 8: 0.09566596194503171, 23: 0.14957716701902748, 13: 0.12209302325581395, 16: 0.1331923890063425, 29: 0.15380549682875264, 25: 0.1522198731501057, 15: 0.13107822410147993}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (det)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ByteTrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.023319615912208505, 9: 0.037037037037037035, 28: 0.05761316872427984, 7: 0.03292181069958848, 15: 0.04526748971193416, 4: 0.01783264746227709, 2: 0.009602194787379973, 8: 0.03566529492455418, 13: 0.04252400548696845, 6: 0.02880658436213992, 18: 0.04663923182441701, 14: 0.0438957475994513, 24: 0.05075445816186557, 1: 0.00411522633744856, 3: 0.012345679012345678, 27: 0.053497942386831275, 20: 0.04801097393689986, 10: 0.038408779149519894, 22: 0.04938271604938271, 26: 0.05212620027434842}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.027434842249657063, 6: 0.05486968449931413, 4: 0.00411522633744856, 7: 0.05898491083676269, 3: 0.0013717421124828531}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90%</t>
+    <t>{4: 0.8753799392097265, 2: 0.43009118541033436, 3: 0.7006079027355623, 1: 0.03343465045592705, 5: 0.9240121580547113, 6: 0.9316109422492401, 7: 0.9376899696048632, 8: 0.939209726443769}</t>
+  </si>
+  <si>
+    <t>single (no center leaping)</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>{7: 0.5121212121212121, 1: 0.08787878787878788, 31: 0.8742424242424243, 18: 0.793939393939394, 11: 0.6803030303030303, 26: 0.8560606060606061, 14: 0.7303030303030303, 19: 0.8075757575757576, 58: 0.9166666666666666, 2: 0.15606060606060607, 12: 0.7015151515151515, 4: 0.3181818181818182, 16: 0.7621212121212121, 10: 0.646969696969697, 8: 0.5712121212121212, 5: 0.38484848484848483, 17: 0.7742424242424243, 80: 0.9212121212121213, 44: 0.9015151515151515, 6: 0.453030303030303, 21: 0.8272727272727273, 15: 0.7454545454545455, 3: 0.23787878787878788, 24: 0.843939393939394, 22: 0.8348484848484848, 49: 0.9090909090909091, 9: 0.6151515151515151, 13: 0.7121212121212122, 43: 0.9, 35: 0.8878787878787879, 53: 0.9136363636363637, 32: 0.8772727272727273, 70: 0.9181818181818182, 45: 0.9030303030303031, 34: 0.8833333333333333, 37: 0.8939393939393939, 36: 0.8909090909090909, 72: 0.9196969696969697, 28: 0.8606060606060606, 57: 0.9151515151515152, 30: 0.8651515151515151, 99: 0.9242424242424242, 146: 0.9257575757575758, 25: 0.8469696969696969, 33: 0.8803030303030303, 50: 0.9106060606060606, 23: 0.8378787878787879, 20: 0.8121212121212121, 41: 0.896969696969697, 52: 0.9121212121212121, 84: 0.9227272727272727, 46: 0.9045454545454545}</t>
+  </si>
+  <si>
+    <t>{4: 0.33181818181818185, 6: 0.5984848484848485, 2: 0.10757575757575757, 7: 0.7696969696969697, 3: 0.19545454545454546, 8: 0.9257575757575758, 5: 0.46060606060606063, 1: 0.024242424242424242}</t>
+  </si>
+  <si>
+    <t>92.58%</t>
+  </si>
+  <si>
+    <t>single (rand)</t>
+  </si>
+  <si>
+    <t>{10: 0.05121951219512195, 11: 0.05365853658536585, 8: 0.045121951219512194, 2: 0.012195121951219513, 3: 0.01951219512195122, 4: 0.02195121951219512, 22: 0.07317073170731707, 17: 0.06829268292682927, 7: 0.036585365853658534, 18: 0.06951219512195123, 1: 0.007317073170731708, 12: 0.05609756097560976, 13: 0.05853658536585366, 14: 0.06341463414634146, 23: 0.07560975609756097, 15: 0.06463414634146342, 24: 0.07682926829268293, 6: 0.032926829268292684, 5: 0.025609756097560974, 19: 0.07073170731707316, 26: 0.07926829268292683, 21: 0.07195121951219512, 28: 0.08048780487804878, 25: 0.07804878048780488, 16: 0.06707317073170732, 29: 0.08170731707317073}</t>
+  </si>
+  <si>
+    <t>{7: 0.07804878048780488, 6: 0.07073170731707316, 5: 0.03780487804878049, 8: 0.08170731707317073, 4: 0.006097560975609756, 3: 0.0012195121951219512}</t>
+  </si>
+  <si>
+    <t>multiple (rand)</t>
+  </si>
+  <si>
+    <t>{14: 0.034954407294832825, 1: 0.007598784194528876, 6: 0.0243161094224924, 25: 0.0486322188449848, 19: 0.041033434650455926, 4: 0.019756838905775075, 7: 0.02735562310030395, 16: 0.037993920972644375, 3: 0.016717325227963525, 9: 0.030395136778115502, 15: 0.0364741641337386, 23: 0.04559270516717325, 17: 0.03951367781155015, 12: 0.031914893617021274, 8: 0.028875379939209727, 2: 0.010638297872340425, 24: 0.04711246200607903, 21: 0.044072948328267476}</t>
+  </si>
+  <si>
+    <t>{5: 0.022796352583586626, 6: 0.0425531914893617, 4: 0.004559270516717325, 7: 0.04711246200607903, 3: 0.00303951367781155, 8: 0.0486322188449848}</t>
+  </si>
+  <si>
+    <t>{9: 0.10200845665961945, 4: 0.06871035940803383, 7: 0.0919661733615222, 12: 0.11945031712473574, 14: 0.12949260042283298, 27: 0.15274841437632136, 24: 0.15169133192389006, 6: 0.08403805496828752, 3: 0.0554968287526427, 2: 0.04386892177589852, 11: 0.11469344608879492, 10: 0.10940803382663848, 19: 0.1427061310782241, 20: 0.14534883720930233, 1: 0.025898520084566595, 22: 0.14799154334038056, 18: 0.13953488372093023, 5: 0.07610993657505286, 21: 0.14693446088794926, 17: 0.136892177589852, 8: 0.09566596194503171, 23: 0.14957716701902748, 13: 0.12209302325581395, 16: 0.1331923890063425, 29: 0.15380549682875264, 25: 0.1522198731501057, 15: 0.13107822410147993}</t>
+  </si>
+  <si>
+    <t>{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
+  </si>
+  <si>
+    <t>single (det)</t>
+  </si>
+  <si>
+    <t>{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
+  </si>
+  <si>
+    <t>{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
+  </si>
+  <si>
+    <t>{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
+  </si>
+  <si>
+    <t>{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
+  </si>
+  <si>
+    <t>ByteTrack</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>{5: 0.023319615912208505, 9: 0.037037037037037035, 28: 0.05761316872427984, 7: 0.03292181069958848, 15: 0.04526748971193416, 4: 0.01783264746227709, 2: 0.009602194787379973, 8: 0.03566529492455418, 13: 0.04252400548696845, 6: 0.02880658436213992, 18: 0.04663923182441701, 14: 0.0438957475994513, 24: 0.05075445816186557, 1: 0.00411522633744856, 3: 0.012345679012345678, 27: 0.053497942386831275, 20: 0.04801097393689986, 10: 0.038408779149519894, 22: 0.04938271604938271, 26: 0.05212620027434842}</t>
+  </si>
+  <si>
+    <t>{5: 0.027434842249657063, 6: 0.05486968449931413, 4: 0.00411522633744856, 7: 0.05898491083676269, 3: 0.0013717421124828531}</t>
+  </si>
+  <si>
+    <t>5.90%</t>
+  </si>
+  <si>
+    <t>{26: 0.045454545454545456, 24: 0.04403409090909091, 9: 0.026988636363636364, 12: 0.032670454545454544, 3: 0.009943181818181818, 10: 0.029829545454545456, 6: 0.02130681818181818, 13: 0.03551136363636364, 1: 0.004261363636363636, 5: 0.019886363636363636, 4: 0.014204545454545454, 7: 0.022727272727272728, 15: 0.03977272727272727, 2: 0.007102272727272727, 8: 0.024147727272727272, 17: 0.041193181818181816, 11: 0.03125, 18: 0.04261363636363636, 14: 0.036931818181818184}</t>
+  </si>
+  <si>
+    <t>{5: 0.018465909090909092, 6: 0.045454545454545456, 8: 0.046875}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="monospace"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Text 1" xfId="20"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Text 1" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="false"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="false"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="false"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12"/>
+    <col min="1" max="1" width="11.0873015873016" style="1" customWidth="true"/>
+    <col min="2" max="3" width="25.2063492063492" style="1" customWidth="true"/>
+    <col min="4" max="4" width="7.11111111111111" style="1" customWidth="true"/>
+    <col min="5" max="5" width="16.8888888888889" style="1" customWidth="true"/>
+    <col min="6" max="6" width="14.6666666666667" style="1" customWidth="true"/>
+    <col min="7" max="7" width="12.547619047619" style="1" customWidth="true"/>
+    <col min="8" max="8" width="21.6111111111111" style="2" customWidth="true"/>
+    <col min="9" max="9" width="9.88888888888889" style="1" customWidth="true"/>
+    <col min="10" max="11" width="33.6190476190476" style="3" customWidth="true"/>
+    <col min="12" max="12" width="12" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,129 +1324,129 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>0.3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>1038</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>975</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">F2/E2</f>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G8" si="0">F2/E2</f>
         <v>0.939306358381503</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>0.3</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0.05</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>1038</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>950</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">F3/E3</f>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
         <v>0.915221579961464</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>0.3</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>1038</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>919</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">F4/E4</f>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
         <v>0.885356454720617</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>0.3</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0.15</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>1038</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>869</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">F5/E5</f>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>0.837186897880539</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>0.3</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>0.2</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>1038</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>820</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">F6/E6</f>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
         <v>0.789980732177264</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>3.55</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>4.67</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -629,740 +1455,740 @@
       <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5">
         <v>0.9537</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0.3</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>0.25</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>1038</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>749</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">F7/E7</f>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
         <v>0.721579961464355</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>0.3</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>0.3</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>1038</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>676</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">F8/E8</f>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
         <v>0.651252408477842</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>0.4</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>869</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>815</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">F10/E10</f>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G16" si="1">F10/E10</f>
         <v>0.937859608745685</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>3.56</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>6.17</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5">
         <v>0.9693</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>0.4</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>0.05</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>869</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>780</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">F11/E11</f>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
         <v>0.897583429228999</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>3.46</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5">
         <v>0.959</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>0.4</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>0.1</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>869</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>747</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">F12/E12</f>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
         <v>0.859608745684695</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>3.48</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>5.86</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="7">
         <v>0.9652</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>0.4</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>0.15</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>869</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>713</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <f aca="false">F13/E13</f>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
         <v>0.8204833141542</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>3.33</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>6.19</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5">
         <v>0.9551</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>0.4</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>0.2</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>869</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>658</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <f aca="false">F14/E14</f>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
         <v>0.757192174913694</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>3.23</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>5.61</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5">
         <v>0.9635</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>0.4</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>0.25</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>869</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>608</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <f aca="false">F15/E15</f>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
         <v>0.699654775604143</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>3.2</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>5.54</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5">
         <v>0.9589</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>0.4</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>0.3</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>869</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>558</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">F16/E16</f>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
         <v>0.642117376294592</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="4">
         <v>3.08</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>5.9</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5">
         <v>0.9677</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.9" customHeight="true" spans="13:13">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" ht="14.9" customHeight="true" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>0.3</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>2067</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>2027</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <f aca="false">F18/E18</f>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:G24" si="2">F18/E18</f>
         <v>0.980648282535075</v>
       </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" ht="14.9" customHeight="true" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>0.3</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>0.05</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2067</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>1994</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <f aca="false">F19/E19</f>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
         <v>0.964683115626512</v>
       </c>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" ht="14.9" customHeight="true" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>0.3</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>0.1</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>2067</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>1968</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <f aca="false">F20/E20</f>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
         <v>0.952104499274311</v>
       </c>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" ht="14.9" customHeight="true" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>0.3</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>0.15</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2067</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>1926</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <f aca="false">F21/E21</f>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
         <v>0.931785195936139</v>
       </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" ht="14.9" customHeight="true" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>0.3</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>0.2</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="1">
         <v>2067</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>1892</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <f aca="false">F22/E22</f>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
         <v>0.915336236090953</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" ht="14.9" customHeight="true" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>0.3</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>0.25</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>2067</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>1842</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <f aca="false">F23/E23</f>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
         <v>0.891146589259797</v>
       </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" ht="14.9" customHeight="true" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>0.3</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>0.3</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>2067</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>1790</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <f aca="false">F24/E24</f>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
         <v>0.865989356555394</v>
       </c>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>0.4</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>0.2</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="1">
         <v>869</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>656</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <f aca="false">F27/E27</f>
+      <c r="G27" s="1">
+        <f t="shared" ref="G27:G32" si="3">F27/E27</f>
         <v>0.754890678941312</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>2.72</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="5">
         <v>0.3524</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5">
         <v>0.7927</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>0.4</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>0.2</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="1">
         <v>869</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>656</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <f aca="false">F28/E28</f>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>0.4</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>0.2</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="1">
         <v>869</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="1">
         <v>656</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <f aca="false">F29/E29</f>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="1">
         <v>0.4</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>0.2</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="1">
         <v>869</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="1">
         <v>656</v>
       </c>
-      <c r="G30" s="1" t="n">
-        <f aca="false">F30/E30</f>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="L30" s="4" t="n">
+      <c r="I30" s="5"/>
+      <c r="L30" s="5">
         <v>0.7957</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="1">
         <v>0.4</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>0.2</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="1">
         <v>869</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="1">
         <v>656</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <f aca="false">F31/E31</f>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="L31" s="4" t="n">
+      <c r="I31" s="5"/>
+      <c r="L31" s="5">
         <v>0.8247</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>0.4</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>0.2</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="1">
         <v>869</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>656</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <f aca="false">F32/E32</f>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="2">
         <v>2.88</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="5">
         <v>0.3681</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="4" t="n">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="5">
         <v>0.8232</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="10:11">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="1">
         <v>0.3</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>0.2</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="1">
         <v>1038</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="1">
         <v>820</v>
       </c>
-      <c r="G35" s="1" t="n">
-        <f aca="false">F35/E35</f>
+      <c r="G35" s="1">
+        <f>F35/E35</f>
         <v>0.789980732177264</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -1380,111 +2206,111 @@
       <c r="L35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" t="s">
         <v>50</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="N35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" ht="17.9" customHeight="true" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="1">
         <v>0.4</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>0.2</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="1">
         <v>869</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="1">
         <v>658</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <f aca="false">F36/E36</f>
+      <c r="G36" s="1">
+        <f>F36/E36</f>
         <v>0.757192174913694</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="2">
         <v>2.36</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="1">
         <v>6.1</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K36" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5">
         <v>0.9392</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>0.3</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>0.2</v>
       </c>
       <c r="G37" s="1" t="e">
-        <f aca="false">F37/E37</f>
+        <f>F37/E37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="1">
         <v>0.4</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>0.2</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>0.4</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>0.2</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="2">
         <v>869</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="1">
         <v>660</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <f aca="false">F41/E41</f>
+      <c r="G41" s="1">
+        <f>F41/E41</f>
         <v>0.759493670886076</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -1493,7 +2319,7 @@
       <c r="I41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="K41" s="3" t="s">
@@ -1503,33 +2329,33 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>0.3</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>0.2</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="1">
         <v>1038</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="1">
         <v>820</v>
       </c>
-      <c r="G45" s="1" t="n">
-        <f aca="false">F45/E45</f>
+      <c r="G45" s="1">
+        <f t="shared" ref="G45:G50" si="4">F45/E45</f>
         <v>0.789980732177264</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>5.07</v>
       </c>
-      <c r="I45" s="1" t="n">
+      <c r="I45" s="1">
         <v>9.97</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -1538,70 +2364,70 @@
       <c r="K45" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L45" s="4" t="n">
+      <c r="L45" s="5">
         <v>0.0817</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>0.3</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="1">
         <v>0.2</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="1">
         <v>1038</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="1">
         <v>820</v>
       </c>
-      <c r="G46" s="1" t="n">
-        <f aca="false">F46/E46</f>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
         <v>0.789980732177264</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>5.03</v>
       </c>
-      <c r="I46" s="4" t="n">
+      <c r="I46" s="5">
         <v>0.8633</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="5">
         <v>0.2732</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>0.4</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>0.2</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="1">
         <v>869</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="1">
         <v>658</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <f aca="false">F47/E47</f>
+      <c r="G47" s="1">
+        <f t="shared" si="4"/>
         <v>0.757192174913694</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>5.01</v>
       </c>
-      <c r="I47" s="1" t="n">
+      <c r="I47" s="1">
         <v>9.34</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -1610,70 +2436,70 @@
       <c r="K47" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L47" s="4" t="n">
+      <c r="L47" s="5">
         <v>0.0486</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>0.4</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="1">
         <v>0.2</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="1">
         <v>869</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="1">
         <v>656</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <f aca="false">F48/E48</f>
+      <c r="G48" s="1">
+        <f t="shared" si="4"/>
         <v>0.754890678941312</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>5.03</v>
       </c>
-      <c r="I48" s="4" t="n">
+      <c r="I48" s="5">
         <v>0.9278</v>
       </c>
-      <c r="L48" s="4" t="n">
+      <c r="L48" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>0.3</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="1">
         <v>0.2</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="1">
         <v>2067</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="1">
         <v>1892</v>
       </c>
-      <c r="G49" s="1" t="n">
-        <f aca="false">F49/E49</f>
+      <c r="G49" s="1">
+        <f t="shared" si="4"/>
         <v>0.915336236090953</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>5.18</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="1">
         <v>7.71</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -1682,73 +2508,73 @@
       <c r="K49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L49" s="4" t="n">
+      <c r="L49" s="5">
         <v>0.1538</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>0.3</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>0.2</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="1">
         <v>2067</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="1">
         <v>1858</v>
       </c>
-      <c r="G50" s="1" t="n">
-        <f aca="false">F50/E50</f>
+      <c r="G50" s="1">
+        <f t="shared" si="4"/>
         <v>0.898887276245767</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>5.03</v>
       </c>
-      <c r="I50" s="4" t="n">
+      <c r="I50" s="5">
         <v>0.9889</v>
       </c>
-      <c r="L50" s="4" t="n">
+      <c r="L50" s="5">
         <v>0.6237</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="11:11">
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>0.3</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>0.2</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="1">
         <v>1038</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F53" s="1">
         <v>820</v>
       </c>
-      <c r="G53" s="1" t="n">
-        <f aca="false">F53/E53</f>
+      <c r="G53" s="1">
+        <f>F53/E53</f>
         <v>0.789980732177264</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="2">
         <v>1.35</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="1">
         <v>9.75</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -1757,37 +2583,37 @@
       <c r="K53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L53" s="4" t="n">
+      <c r="L53" s="5">
         <v>0.9756</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>0.4</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>0.2</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="1">
         <v>869</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F54" s="1">
         <v>658</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <f aca="false">F54/E54</f>
+      <c r="G54" s="1">
+        <f>F54/E54</f>
         <v>0.757192174913694</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2">
         <v>1.2</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="1">
         <v>16.87</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -1796,81 +2622,81 @@
       <c r="K54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L54" s="4" t="n">
+      <c r="L54" s="5">
         <v>0.9696</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="1">
         <v>0.3</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>0.2</v>
       </c>
       <c r="G55" s="1" t="e">
-        <f aca="false">F55/E55</f>
+        <f>F55/E55</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="1">
         <v>0.2</v>
       </c>
       <c r="G64" s="1" t="e">
-        <f aca="false">F64/E64</f>
+        <f>F64/E64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M64" s="0" t="s">
+      <c r="M64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>0.2</v>
       </c>
       <c r="G65" s="1" t="e">
-        <f aca="false">F65/E65</f>
+        <f>F65/E65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="0" t="s">
+      <c r="L65" s="5"/>
+      <c r="M65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="1">
         <v>0.2</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F67" s="1">
         <v>729</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -1879,7 +2705,7 @@
       <c r="I67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="11" t="s">
         <v>78</v>
       </c>
       <c r="K67" s="3" t="s">
@@ -1889,28 +2715,42 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F68" s="1">
+        <v>704</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="I68" s="1">
+        <v>8.55</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.0469</v>
+      </c>
+    </row>
+    <row r="80" ht="15.65" customHeight="true" spans="4:5">
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>dataset</t>
   </si>
@@ -183,6 +183,12 @@
     <t>single (no center leaping)</t>
   </si>
   <si>
+    <t>{22: 0.947560975609756, 8: 0.8219512195121951, 2: 0.30853658536585366, 3: 0.4548780487804878, 1: 0.11219512195121951, 11: 0.8951219512195122, 12: 0.9048780487804878, 4: 0.5951219512195122, 5: 0.6707317073170732, 7: 0.7792682926829269, 55: 0.9512195121951219, 6: 0.7341463414634146, 16: 0.9317073170731708, 18: 0.9402439024390243, 28: 0.95, 9: 0.85, 10: 0.875609756097561, 19: 0.9439024390243902, 17: 0.9390243902439024, 15: 0.9231707317073171, 14: 0.9158536585365854, 13: 0.9134146341463415, 20: 0.9451219512195121, 23: 0.948780487804878}</t>
+  </si>
+  <si>
+    <t>{7: 0.6780487804878049, 6: 0.42560975609756097, 5: 0.2524390243902439, 3: 0.08780487804878048, 8: 0.9512195121951219, 2: 0.04024390243902439, 4: 0.12804878048780488, 1: 0.003658536585365854}</t>
+  </si>
+  <si>
     <t>4.80</t>
   </si>
   <si>
@@ -241,6 +247,12 @@
   </si>
   <si>
     <t>g3</t>
+  </si>
+  <si>
+    <t>{6: 0.7645390070921986, 12: 0.8808510638297873, 2: 0.30354609929078014, 4: 0.6269503546099291, 3: 0.4921985815602837, 7: 0.8042553191489362, 1: 0.10921985815602837, 9: 0.8539007092198582, 5: 0.700709219858156, 14: 0.8978723404255319, 8: 0.826950354609929, 10: 0.8652482269503546, 27: 0.9205673758865248, 13: 0.8893617021276595, 20: 0.9106382978723404, 11: 0.873758865248227, 16: 0.9049645390070922, 24: 0.9177304964539007, 23: 0.9163120567375886, 19: 0.9078014184397163, 40: 0.9276595744680851, 15: 0.900709219858156, 21: 0.9148936170212766, 26: 0.9191489361702128, 28: 0.9219858156028369, 30: 0.9234042553191489, 33: 0.924822695035461, 17: 0.9063829787234042, 36: 0.926241134751773}</t>
+  </si>
+  <si>
+    <t>{8: 0.8695035460992908, 7: 0.7092198581560284, 5: 0.2553191489361702, 9: 0.926241134751773, 3: 0.07234042553191489, 4: 0.14184397163120568, 6: 0.4723404255319149, 2: 0.02269503546099291, 1: 0.005673758865248227, 10: 0.9276595744680851, 12: 0.9290780141843972}</t>
   </si>
   <si>
     <t>g4</t>
@@ -272,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -305,7 +317,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,11 +346,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,27 +368,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -362,8 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,39 +429,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,23 +451,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +471,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -469,151 +481,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,31 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,11 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,24 +705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -716,21 +716,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,6 +745,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -768,138 +780,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,8 +1280,8 @@
   <sheetPr/>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
@@ -2273,7 +2285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -2286,8 +2298,30 @@
       <c r="D40" s="1">
         <v>0.2</v>
       </c>
-      <c r="M40" t="s">
-        <v>50</v>
+      <c r="E40" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F40" s="1">
+        <v>820</v>
+      </c>
+      <c r="G40" s="1">
+        <f>F40/E40</f>
+        <v>0.789980732177264</v>
+      </c>
+      <c r="H40" s="2">
+        <v>5.74</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.81</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.9512</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2314,19 +2348,19 @@
         <v>0.759493670886076</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2334,7 +2368,7 @@
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1">
         <v>0.3</v>
@@ -2359,10 +2393,10 @@
         <v>9.97</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L45" s="5">
         <v>0.0817</v>
@@ -2373,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C46" s="1">
         <v>0.3</v>
@@ -2406,7 +2440,7 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1">
         <v>0.4</v>
@@ -2431,10 +2465,10 @@
         <v>9.34</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L47" s="5">
         <v>0.0486</v>
@@ -2445,7 +2479,7 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1">
         <v>0.4</v>
@@ -2478,7 +2512,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1">
         <v>0.3</v>
@@ -2503,10 +2537,10 @@
         <v>7.71</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L49" s="5">
         <v>0.1538</v>
@@ -2517,7 +2551,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1">
         <v>0.3</v>
@@ -2553,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1">
         <v>0.3</v>
@@ -2578,10 +2612,10 @@
         <v>9.75</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L53" s="5">
         <v>0.9756</v>
@@ -2592,7 +2626,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" s="1">
         <v>0.4</v>
@@ -2617,10 +2651,10 @@
         <v>16.87</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L54" s="5">
         <v>0.9696</v>
@@ -2631,7 +2665,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1">
         <v>0.3</v>
@@ -2646,7 +2680,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2664,7 +2698,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2677,13 +2711,30 @@
       <c r="D65" s="1">
         <v>0.2</v>
       </c>
+      <c r="F65" s="1">
+        <v>705</v>
+      </c>
       <c r="G65" s="1" t="e">
         <f>F65/E65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L65" s="5"/>
+      <c r="H65" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.9291</v>
+      </c>
       <c r="M65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2691,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1">
         <v>0.2</v>
@@ -2700,19 +2751,19 @@
         <v>729</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2720,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1">
         <v>0.2</v>
@@ -2735,10 +2786,10 @@
         <v>8.55</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L68" s="5">
         <v>0.0469</v>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
   <si>
     <t>dataset</t>
   </si>
@@ -222,75 +222,78 @@
     <t>single (no push pull)</t>
   </si>
   <si>
+    <t>g1,g2</t>
+  </si>
+  <si>
+    <t>single (rand)</t>
+  </si>
+  <si>
+    <t>{10: 0.05121951219512195, 11: 0.05365853658536585, 8: 0.045121951219512194, 2: 0.012195121951219513, 3: 0.01951219512195122, 4: 0.02195121951219512, 22: 0.07317073170731707, 17: 0.06829268292682927, 7: 0.036585365853658534, 18: 0.06951219512195123, 1: 0.007317073170731708, 12: 0.05609756097560976, 13: 0.05853658536585366, 14: 0.06341463414634146, 23: 0.07560975609756097, 15: 0.06463414634146342, 24: 0.07682926829268293, 6: 0.032926829268292684, 5: 0.025609756097560974, 19: 0.07073170731707316, 26: 0.07926829268292683, 21: 0.07195121951219512, 28: 0.08048780487804878, 25: 0.07804878048780488, 16: 0.06707317073170732, 29: 0.08170731707317073}</t>
+  </si>
+  <si>
+    <t>{7: 0.07804878048780488, 6: 0.07073170731707316, 5: 0.03780487804878049, 8: 0.08170731707317073, 4: 0.006097560975609756, 3: 0.0012195121951219512}</t>
+  </si>
+  <si>
+    <t>multiple (rand)</t>
+  </si>
+  <si>
+    <t>{14: 0.034954407294832825, 1: 0.007598784194528876, 6: 0.0243161094224924, 25: 0.0486322188449848, 19: 0.041033434650455926, 4: 0.019756838905775075, 7: 0.02735562310030395, 16: 0.037993920972644375, 3: 0.016717325227963525, 9: 0.030395136778115502, 15: 0.0364741641337386, 23: 0.04559270516717325, 17: 0.03951367781155015, 12: 0.031914893617021274, 8: 0.028875379939209727, 2: 0.010638297872340425, 24: 0.04711246200607903, 21: 0.044072948328267476}</t>
+  </si>
+  <si>
+    <t>{5: 0.022796352583586626, 6: 0.0425531914893617, 4: 0.004559270516717325, 7: 0.04711246200607903, 3: 0.00303951367781155, 8: 0.0486322188449848}</t>
+  </si>
+  <si>
+    <t>{9: 0.10200845665961945, 4: 0.06871035940803383, 7: 0.0919661733615222, 12: 0.11945031712473574, 14: 0.12949260042283298, 27: 0.15274841437632136, 24: 0.15169133192389006, 6: 0.08403805496828752, 3: 0.0554968287526427, 2: 0.04386892177589852, 11: 0.11469344608879492, 10: 0.10940803382663848, 19: 0.1427061310782241, 20: 0.14534883720930233, 1: 0.025898520084566595, 22: 0.14799154334038056, 18: 0.13953488372093023, 5: 0.07610993657505286, 21: 0.14693446088794926, 17: 0.136892177589852, 8: 0.09566596194503171, 23: 0.14957716701902748, 13: 0.12209302325581395, 16: 0.1331923890063425, 29: 0.15380549682875264, 25: 0.1522198731501057, 15: 0.13107822410147993}</t>
+  </si>
+  <si>
+    <t>{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
+  </si>
+  <si>
+    <t>single (det)</t>
+  </si>
+  <si>
+    <t>{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
+  </si>
+  <si>
+    <t>{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
+  </si>
+  <si>
+    <t>{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
+  </si>
+  <si>
+    <t>{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
+  </si>
+  <si>
+    <t>ByteTrack</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>{3: 0.4911080711354309, 4: 0.6210670314637483, 10: 0.853625170998632, 5: 0.6976744186046512, 9: 0.8344733242134063, 7: 0.7934336525307798, 12: 0.8714090287277702, 2: 0.33652530779753764, 8: 0.8180574555403557, 1: 0.14227086183310533, 6: 0.7578659370725034, 15: 0.8878248974008208, 13: 0.8782489740082079, 11: 0.8604651162790697, 17: 0.893296853625171, 33: 0.9110807113543091, 53: 0.9124487004103967, 32: 0.9097127222982216, 19: 0.8974008207934336, 14: 0.8823529411764706, 23: 0.905608755129959, 27: 0.9069767441860465, 16: 0.8891928864569083, 21: 0.9015047879616963, 20: 0.8987688098495212, 18: 0.8946648426812586}</t>
+  </si>
+  <si>
+    <t>{9: 0.8919288645690835, 8: 0.7934336525307798, 6: 0.3064295485636115, 7: 0.5690834473324213, 5: 0.12722298221614228, 4: 0.057455540355677154, 3: 0.02051983584131327, 10: 0.9124487004103967, 12: 0.9138166894664843, 2: 0.005471956224350205, 1: 0.0027359781121751026}</t>
+  </si>
+  <si>
+    <t>91.38%</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>{6: 0.7645390070921986, 12: 0.8808510638297873, 2: 0.30354609929078014, 4: 0.6269503546099291, 3: 0.4921985815602837, 7: 0.8042553191489362, 1: 0.10921985815602837, 9: 0.8539007092198582, 5: 0.700709219858156, 14: 0.8978723404255319, 8: 0.826950354609929, 10: 0.8652482269503546, 27: 0.9205673758865248, 13: 0.8893617021276595, 20: 0.9106382978723404, 11: 0.873758865248227, 16: 0.9049645390070922, 24: 0.9177304964539007, 23: 0.9163120567375886, 19: 0.9078014184397163, 40: 0.9276595744680851, 15: 0.900709219858156, 21: 0.9148936170212766, 26: 0.9191489361702128, 28: 0.9219858156028369, 30: 0.9234042553191489, 33: 0.924822695035461, 17: 0.9063829787234042, 36: 0.926241134751773}</t>
+  </si>
+  <si>
+    <t>{8: 0.8695035460992908, 7: 0.7092198581560284, 5: 0.2553191489361702, 9: 0.926241134751773, 3: 0.07234042553191489, 4: 0.14184397163120568, 6: 0.4723404255319149, 2: 0.02269503546099291, 1: 0.005673758865248227, 10: 0.9276595744680851, 12: 0.9290780141843972}</t>
+  </si>
+  <si>
     <t>g3</t>
   </si>
   <si>
-    <t>single (rand)</t>
-  </si>
-  <si>
-    <t>{10: 0.05121951219512195, 11: 0.05365853658536585, 8: 0.045121951219512194, 2: 0.012195121951219513, 3: 0.01951219512195122, 4: 0.02195121951219512, 22: 0.07317073170731707, 17: 0.06829268292682927, 7: 0.036585365853658534, 18: 0.06951219512195123, 1: 0.007317073170731708, 12: 0.05609756097560976, 13: 0.05853658536585366, 14: 0.06341463414634146, 23: 0.07560975609756097, 15: 0.06463414634146342, 24: 0.07682926829268293, 6: 0.032926829268292684, 5: 0.025609756097560974, 19: 0.07073170731707316, 26: 0.07926829268292683, 21: 0.07195121951219512, 28: 0.08048780487804878, 25: 0.07804878048780488, 16: 0.06707317073170732, 29: 0.08170731707317073}</t>
-  </si>
-  <si>
-    <t>{7: 0.07804878048780488, 6: 0.07073170731707316, 5: 0.03780487804878049, 8: 0.08170731707317073, 4: 0.006097560975609756, 3: 0.0012195121951219512}</t>
-  </si>
-  <si>
-    <t>multiple (rand)</t>
-  </si>
-  <si>
-    <t>{14: 0.034954407294832825, 1: 0.007598784194528876, 6: 0.0243161094224924, 25: 0.0486322188449848, 19: 0.041033434650455926, 4: 0.019756838905775075, 7: 0.02735562310030395, 16: 0.037993920972644375, 3: 0.016717325227963525, 9: 0.030395136778115502, 15: 0.0364741641337386, 23: 0.04559270516717325, 17: 0.03951367781155015, 12: 0.031914893617021274, 8: 0.028875379939209727, 2: 0.010638297872340425, 24: 0.04711246200607903, 21: 0.044072948328267476}</t>
-  </si>
-  <si>
-    <t>{5: 0.022796352583586626, 6: 0.0425531914893617, 4: 0.004559270516717325, 7: 0.04711246200607903, 3: 0.00303951367781155, 8: 0.0486322188449848}</t>
-  </si>
-  <si>
-    <t>{9: 0.10200845665961945, 4: 0.06871035940803383, 7: 0.0919661733615222, 12: 0.11945031712473574, 14: 0.12949260042283298, 27: 0.15274841437632136, 24: 0.15169133192389006, 6: 0.08403805496828752, 3: 0.0554968287526427, 2: 0.04386892177589852, 11: 0.11469344608879492, 10: 0.10940803382663848, 19: 0.1427061310782241, 20: 0.14534883720930233, 1: 0.025898520084566595, 22: 0.14799154334038056, 18: 0.13953488372093023, 5: 0.07610993657505286, 21: 0.14693446088794926, 17: 0.136892177589852, 8: 0.09566596194503171, 23: 0.14957716701902748, 13: 0.12209302325581395, 16: 0.1331923890063425, 29: 0.15380549682875264, 25: 0.1522198731501057, 15: 0.13107822410147993}</t>
-  </si>
-  <si>
-    <t>{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
-  </si>
-  <si>
-    <t>single (det)</t>
-  </si>
-  <si>
-    <t>{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
-  </si>
-  <si>
-    <t>{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
-  </si>
-  <si>
-    <t>{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
-  </si>
-  <si>
-    <t>{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
-  </si>
-  <si>
-    <t>ByteTrack</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>{3: 0.4911080711354309, 4: 0.6210670314637483, 10: 0.853625170998632, 5: 0.6976744186046512, 9: 0.8344733242134063, 7: 0.7934336525307798, 12: 0.8714090287277702, 2: 0.33652530779753764, 8: 0.8180574555403557, 1: 0.14227086183310533, 6: 0.7578659370725034, 15: 0.8878248974008208, 13: 0.8782489740082079, 11: 0.8604651162790697, 17: 0.893296853625171, 33: 0.9110807113543091, 53: 0.9124487004103967, 32: 0.9097127222982216, 19: 0.8974008207934336, 14: 0.8823529411764706, 23: 0.905608755129959, 27: 0.9069767441860465, 16: 0.8891928864569083, 21: 0.9015047879616963, 20: 0.8987688098495212, 18: 0.8946648426812586}</t>
-  </si>
-  <si>
-    <t>{9: 0.8919288645690835, 8: 0.7934336525307798, 6: 0.3064295485636115, 7: 0.5690834473324213, 5: 0.12722298221614228, 4: 0.057455540355677154, 3: 0.02051983584131327, 10: 0.9124487004103967, 12: 0.9138166894664843, 2: 0.005471956224350205, 1: 0.0027359781121751026}</t>
-  </si>
-  <si>
-    <t>91.38%</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
-    <t>{6: 0.7645390070921986, 12: 0.8808510638297873, 2: 0.30354609929078014, 4: 0.6269503546099291, 3: 0.4921985815602837, 7: 0.8042553191489362, 1: 0.10921985815602837, 9: 0.8539007092198582, 5: 0.700709219858156, 14: 0.8978723404255319, 8: 0.826950354609929, 10: 0.8652482269503546, 27: 0.9205673758865248, 13: 0.8893617021276595, 20: 0.9106382978723404, 11: 0.873758865248227, 16: 0.9049645390070922, 24: 0.9177304964539007, 23: 0.9163120567375886, 19: 0.9078014184397163, 40: 0.9276595744680851, 15: 0.900709219858156, 21: 0.9148936170212766, 26: 0.9191489361702128, 28: 0.9219858156028369, 30: 0.9234042553191489, 33: 0.924822695035461, 17: 0.9063829787234042, 36: 0.926241134751773}</t>
-  </si>
-  <si>
-    <t>{8: 0.8695035460992908, 7: 0.7092198581560284, 5: 0.2553191489361702, 9: 0.926241134751773, 3: 0.07234042553191489, 4: 0.14184397163120568, 6: 0.4723404255319149, 2: 0.02269503546099291, 1: 0.005673758865248227, 10: 0.9276595744680851, 12: 0.9290780141843972}</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -319,6 +322,18 @@
   </si>
   <si>
     <t>JDE</t>
+  </si>
+  <si>
+    <t>{8: 0.029453015427769985, 18: 0.04207573632538569, 24: 0.04628330995792426, 2: 0.012622720897615708, 20: 0.043478260869565216, 1: 0.008415147265077139, 5: 0.02244039270687237, 13: 0.037868162692847124, 12: 0.0364656381486676, 3: 0.0182328190743338, 11: 0.033660589060308554, 10: 0.03225806451612903, 25: 0.047685834502103785, 7: 0.023842917251051893, 30: 0.04908835904628331, 15: 0.03927068723702665, 4: 0.019635343618513323}</t>
+  </si>
+  <si>
+    <t>{6: 0.043478260869565216, 5: 0.028050490883590462, 8: 0.04908835904628331, 4: 0.005610098176718092, 7: 0.047685834502103785, 3: 0.001402524544179523}</t>
+  </si>
+  <si>
+    <t>{2: 0.27349228611500703, 4: 0.5063113604488079, 9: 0.7531556802244039, 6: 0.635343618513324, 39: 0.8920056100981767, 7: 0.6844319775596073, 1: 0.12622720897615708, 3: 0.3884992987377279, 5: 0.5722300140252454, 41: 0.8934081346423562, 12: 0.8064516129032258, 13: 0.8162692847124825, 19: 0.8737727910238429, 17: 0.8625525946704067, 26: 0.8877980364656382, 16: 0.8499298737727911, 20: 0.8779803646563815, 8: 0.7166900420757363, 29: 0.8892005610098177, 25: 0.8863955119214586, 10: 0.7699859747545582, 14: 0.8316970546984572, 18: 0.8667601683029453, 15: 0.8387096774193549, 11: 0.791023842917251, 21: 0.879382889200561, 31: 0.8906030855539971, 23: 0.8807854137447405, 24: 0.8821879382889201}</t>
+  </si>
+  <si>
+    <t>{9: 0.8681626928471248, 6: 0.5385694249649369, 5: 0.39831697054698456, 4: 0.2496493688639551, 7: 0.6367461430575035, 8: 0.7812061711079944, 1: 0.019635343618513323, 3: 0.12201963534361851, 10: 0.8835904628330996, 2: 0.05750350631136045, 11: 0.8906030855539971, 13: 0.8934081346423562}</t>
   </si>
   <si>
     <t>multiple</t>
@@ -344,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -377,7 +392,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,72 +503,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +524,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,58 +539,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -538,6 +553,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -547,181 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,8 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,6 +770,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,8 +816,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,30 +847,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,138 +855,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
@@ -2446,7 +2461,7 @@
       <c r="E43" s="2"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -2459,11 +2474,8 @@
       <c r="D44" s="1">
         <v>0.2</v>
       </c>
-      <c r="M44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -2475,6 +2487,9 @@
       </c>
       <c r="D45" s="1">
         <v>0.2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2881,7 +2896,7 @@
       </c>
       <c r="L69" s="5"/>
       <c r="M69" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2898,19 +2913,19 @@
         <v>729</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2933,10 +2948,10 @@
         <v>8.55</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L72" s="5">
         <v>0.0469</v>
@@ -2962,10 +2977,10 @@
         <v>12.36</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L73" s="5">
         <v>0.0386</v>
@@ -2973,7 +2988,7 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -2983,6 +2998,24 @@
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="F79" s="1">
+        <v>713</v>
+      </c>
+      <c r="H79" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="I79" s="1">
+        <v>9.11</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0.0491</v>
+      </c>
       <c r="M79" t="s">
         <v>55</v>
       </c>
@@ -3022,7 +3055,7 @@
         <v>69</v>
       </c>
       <c r="M83" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" ht="15.65" customHeight="true" spans="1:5">
@@ -3035,27 +3068,38 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" s="1" customFormat="true" spans="1:12">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="F86" s="1">
+        <v>713</v>
+      </c>
+      <c r="H86" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="I86" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0.8934</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3069,19 +3113,19 @@
         <v>810</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3089,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3105,7 +3149,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
   <si>
     <t>dataset</t>
   </si>
@@ -222,7 +222,13 @@
     <t>single (no push pull)</t>
   </si>
   <si>
-    <t>g1,g2</t>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>{4: 0.40842787682333875, 3: 0.31442463533225284, 2: 0.20097244732576985, 7: 0.6353322528363047, 6: 0.5883306320907618, 1: 0.09724473257698542, 15: 0.8589951377633711, 5: 0.5105348460291734, 8: 0.6758508914100486, 19: 0.8946515397082658, 24: 0.9141004862236629, 33: 0.93354943273906, 10: 0.7504051863857374, 27: 0.9222042139384117, 9: 0.7212317666126418, 40: 0.9481361426256077, 20: 0.899513776337115, 12: 0.8055105348460292, 39: 0.946515397082658, 35: 0.940032414910859, 38: 0.9448946515397083, 13: 0.820097244732577, 16: 0.86709886547812, 14: 0.8476499189627229, 11: 0.7747163695299838, 23: 0.9076175040518638, 17: 0.8752025931928687, 30: 0.9270664505672609, 22: 0.9059967585089141, 18: 0.8816855753646677, 34: 0.9384116693679092, 26: 0.9205834683954619, 31: 0.9303079416531604, 25: 0.9157212317666127, 43: 0.9497568881685575, 32: 0.9319286871961102, 52: 0.9513776337115073, 28: 0.9238249594813615, 53: 0.9529983792544571}</t>
+  </si>
+  <si>
+    <t>{6: 0.7358184764991896, 4: 0.4376012965964344, 3: 0.26418152350081037, 2: 0.11345218800648298, 5: 0.6175040518638574, 7: 0.8411669367909238, 8: 0.9529983792544571, 1: 0.014586709886547812}</t>
   </si>
   <si>
     <t>single (rand)</t>
@@ -282,18 +288,12 @@
     <t>91.38%</t>
   </si>
   <si>
-    <t>g4</t>
-  </si>
-  <si>
     <t>{6: 0.7645390070921986, 12: 0.8808510638297873, 2: 0.30354609929078014, 4: 0.6269503546099291, 3: 0.4921985815602837, 7: 0.8042553191489362, 1: 0.10921985815602837, 9: 0.8539007092198582, 5: 0.700709219858156, 14: 0.8978723404255319, 8: 0.826950354609929, 10: 0.8652482269503546, 27: 0.9205673758865248, 13: 0.8893617021276595, 20: 0.9106382978723404, 11: 0.873758865248227, 16: 0.9049645390070922, 24: 0.9177304964539007, 23: 0.9163120567375886, 19: 0.9078014184397163, 40: 0.9276595744680851, 15: 0.900709219858156, 21: 0.9148936170212766, 26: 0.9191489361702128, 28: 0.9219858156028369, 30: 0.9234042553191489, 33: 0.924822695035461, 17: 0.9063829787234042, 36: 0.926241134751773}</t>
   </si>
   <si>
     <t>{8: 0.8695035460992908, 7: 0.7092198581560284, 5: 0.2553191489361702, 9: 0.926241134751773, 3: 0.07234042553191489, 4: 0.14184397163120568, 6: 0.4723404255319149, 2: 0.02269503546099291, 1: 0.005673758865248227, 10: 0.9276595744680851, 12: 0.9290780141843972}</t>
   </si>
   <si>
-    <t>g3</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>{6: 0.043478260869565216, 5: 0.028050490883590462, 8: 0.04908835904628331, 4: 0.005610098176718092, 7: 0.047685834502103785, 3: 0.001402524544179523}</t>
+  </si>
+  <si>
+    <t>{2: 0.014814814814814815, 32: 0.04567901234567901, 13: 0.0345679012345679, 1: 0.007407407407407408, 19: 0.040740740740740744, 39: 0.04814814814814815, 12: 0.03209876543209877, 24: 0.043209876543209874, 11: 0.027160493827160494, 15: 0.037037037037037035, 8: 0.022222222222222223, 4: 0.019753086419753086, 18: 0.03827160493827161, 9: 0.02345679012345679, 27: 0.044444444444444446, 3: 0.016049382716049384, 47: 0.04938271604938271}</t>
+  </si>
+  <si>
+    <t>{7: 0.04814814814814815, 5: 0.020987654320987655, 6: 0.04197530864197531, 4: 0.0012345679012345679, 8: 0.04938271604938271}</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>66,g1</t>
   </si>
   <si>
     <t>{2: 0.27349228611500703, 4: 0.5063113604488079, 9: 0.7531556802244039, 6: 0.635343618513324, 39: 0.8920056100981767, 7: 0.6844319775596073, 1: 0.12622720897615708, 3: 0.3884992987377279, 5: 0.5722300140252454, 41: 0.8934081346423562, 12: 0.8064516129032258, 13: 0.8162692847124825, 19: 0.8737727910238429, 17: 0.8625525946704067, 26: 0.8877980364656382, 16: 0.8499298737727911, 20: 0.8779803646563815, 8: 0.7166900420757363, 29: 0.8892005610098177, 25: 0.8863955119214586, 10: 0.7699859747545582, 14: 0.8316970546984572, 18: 0.8667601683029453, 15: 0.8387096774193549, 11: 0.791023842917251, 21: 0.879382889200561, 31: 0.8906030855539971, 23: 0.8807854137447405, 24: 0.8821879382889201}</t>
@@ -360,9 +372,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -405,38 +417,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,16 +433,43 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,9 +483,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,10 +514,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,16 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,18 +552,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -556,7 +568,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +640,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,103 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,13 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,13 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,6 +771,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -770,6 +800,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,8 +836,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,41 +859,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,135 +867,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1355,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
@@ -2461,7 +2473,7 @@
       <c r="E43" s="2"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -2474,8 +2486,15 @@
       <c r="D44" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="G44" s="1" t="e">
+        <f>F44/E44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -2488,8 +2507,30 @@
       <c r="D45" s="1">
         <v>0.2</v>
       </c>
-      <c r="M45" t="s">
-        <v>68</v>
+      <c r="E45" s="1">
+        <v>869</v>
+      </c>
+      <c r="F45" s="1">
+        <v>617</v>
+      </c>
+      <c r="G45" s="1">
+        <f>F45/E45</f>
+        <v>0.710011507479862</v>
+      </c>
+      <c r="H45" s="2">
+        <v>4.31</v>
+      </c>
+      <c r="I45" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.953</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2497,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1">
         <v>0.3</v>
@@ -2522,10 +2563,10 @@
         <v>9.97</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L48" s="5">
         <v>0.0817</v>
@@ -2536,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1">
         <v>0.3</v>
@@ -2569,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1">
         <v>0.4</v>
@@ -2594,10 +2635,10 @@
         <v>9.34</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L50" s="5">
         <v>0.0486</v>
@@ -2608,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1">
         <v>0.4</v>
@@ -2641,7 +2682,7 @@
         <v>31</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1">
         <v>0.3</v>
@@ -2666,10 +2707,10 @@
         <v>7.71</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L52" s="5">
         <v>0.1538</v>
@@ -2680,7 +2721,7 @@
         <v>31</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="1">
         <v>0.3</v>
@@ -2716,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1">
         <v>0.3</v>
@@ -2741,10 +2782,10 @@
         <v>9.75</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L56" s="5">
         <v>0.9756</v>
@@ -2755,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1">
         <v>0.4</v>
@@ -2780,10 +2821,10 @@
         <v>16.87</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L57" s="5">
         <v>0.9696</v>
@@ -2794,7 +2835,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1">
         <v>0.3</v>
@@ -2809,7 +2850,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2830,22 +2871,22 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M67" s="12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2872,16 +2913,16 @@
         <v>4.59</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L68" s="5">
         <v>0.9291</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2895,16 +2936,14 @@
         <v>0.2</v>
       </c>
       <c r="L69" s="5"/>
-      <c r="M69" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="M69" s="12"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1">
         <v>0.2</v>
@@ -2933,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1">
         <v>0.2</v>
@@ -2962,7 +3001,7 @@
         <v>31</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1">
         <v>0.2</v>
@@ -2996,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F79" s="1">
         <v>713</v>
@@ -3020,12 +3059,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="M80" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3033,18 +3075,39 @@
         <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F81" s="1">
+        <v>810</v>
+      </c>
+      <c r="H81" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I81" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.0494</v>
       </c>
       <c r="M81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="M82" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3052,21 +3115,24 @@
         <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" ht="15.65" customHeight="true" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" ht="15.65" customHeight="true" spans="1:13">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
+      <c r="M84" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="86" s="1" customFormat="true" spans="1:12">
       <c r="A86" s="1" t="s">
@@ -3085,10 +3151,10 @@
         <v>5.63</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L86" s="5">
         <v>0.8934</v>
@@ -3099,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3113,19 +3179,19 @@
         <v>810</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3133,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3149,7 +3215,7 @@
         <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -1,593 +1,1418 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="17839" windowHeight="16818" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
-  <si>
-    <t xml:space="preserve">dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conf_thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iou thr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total effective ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need attack ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attack rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avg frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame dict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l2 dict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">success rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOT15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{37: 0.9524390243902439, 5: 0.6914634146341463, 4: 0.5951219512195122, 2: 0.33902439024390246, 11: 0.8963414634146342, 7: 0.8, 3: 0.4768292682926829, 1: 0.14390243902439023, 12: 0.9048780487804878, 18: 0.9390243902439024, 10: 0.8780487804878049, 20: 0.9463414634146341, 6: 0.75, 14: 0.9207317073170732, 8: 0.8329268292682926, 41: 0.9536585365853658, 9: 0.8609756097560975, 22: 0.95, 13: 0.9158536585365854, 19: 0.9426829268292682, 16: 0.9341463414634147, 15: 0.925609756097561, 21: 0.947560975609756, 25: 0.9512195121951219}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.22682926829268293, 5: 0.7573170731707317, 3: 0.42317073170731706, 4: 0.6146341463414634, 1: 0.03170731707317073, 7: 0.8853658536585366, 6: 0.8365853658536585, 8: 0.9512195121951219, 9: 0.9536585365853658}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOT17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.5337423312883436, 3: 0.4343558282208589, 13: 0.8723926380368098, 5: 0.5975460122699386, 14: 0.8871165644171779, 9: 0.7963190184049079, 16: 0.9067484662576687, 7: 0.7128834355828221, 10: 0.8134969325153374, 8: 0.7484662576687117, 1: 0.12147239263803682, 18: 0.9177914110429448, 6: 0.6613496932515337, 2: 0.3079754601226994, 22: 0.9361963190184049, 24: 0.9460122699386503, 26: 0.950920245398773, 11: 0.8441717791411043, 21: 0.9325153374233128, 15: 0.8957055214723927, 25: 0.9484662576687116, 12: 0.8576687116564418, 23: 0.943558282208589, 32: 0.9607361963190184, 19: 0.9202453987730062, 20: 0.9239263803680982, 34: 0.9656441717791411, 27: 0.9521472392638037, 38: 0.9668711656441717, 33: 0.9631901840490797, 54: 0.9693251533742331, 17: 0.9116564417177914, 28: 0.9533742331288344, 41: 0.9680981595092024}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.652760736196319, 5: 0.7496932515337423, 3: 0.47116564417177914, 8: 0.9631901840490797, 6: 0.8233128834355828, 2: 0.24171779141104294, 1: 0.025766871165644172, 7: 0.8539877300613496, 9: 0.9693251533742331}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.6, 3: 0.43205128205128207, 6: 0.6730769230769231, 8: 0.7474358974358974, 14: 0.8807692307692307, 4: 0.5294871794871795, 10: 0.8141025641025641, 13: 0.8641025641025641, 7: 0.7141025641025641, 2: 0.2935897435897436, 43: 0.958974358974359, 12: 0.8512820512820513, 1: 0.1141025641025641, 17: 0.9115384615384615, 20: 0.9282051282051282, 11: 0.8384615384615385, 9: 0.7833333333333333, 24: 0.9384615384615385, 15: 0.8884615384615384, 23: 0.9358974358974359, 16: 0.9012820512820513, 25: 0.9435897435897436, 33: 0.9564102564102565, 18: 0.9141025641025641, 19: 0.9179487179487179, 32: 0.9538461538461539, 29: 0.9461538461538461, 21: 0.9307692307692308, 28: 0.9448717948717948, 34: 0.9576923076923077, 22: 0.9333333333333333}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.6576923076923077, 3: 0.4653846153846154, 5: 0.7782051282051282, 2: 0.24615384615384617, 6: 0.8333333333333334, 1: 0.023076923076923078, 8: 0.9564102564102565, 7: 0.8641025641025641, 9: 0.958974358974359}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.7309236947791165, 16: 0.9156626506024096, 5: 0.6358768406961178, 6: 0.6867469879518072, 14: 0.8808567603748326, 20: 0.92904953145917, 8: 0.7657295850066934, 3: 0.46987951807228917, 9: 0.8032128514056225, 13: 0.8741633199464525, 42: 0.965194109772423, 39: 0.963855421686747, 1: 0.12985274431057564, 2: 0.32663989290495316, 15: 0.8995983935742972, 4: 0.5662650602409639, 12: 0.8554216867469879, 11: 0.8393574297188755, 31: 0.9504685408299867, 26: 0.9424364123159303, 21: 0.9357429718875502, 32: 0.9585006693440429, 29: 0.9491298527443106, 33: 0.9598393574297188, 28: 0.9464524765729585, 18: 0.9210174029451138, 10: 0.8246318607764391, 38: 0.9625167336010709, 25: 0.9397590361445783, 23: 0.9370816599732262, 19: 0.9250334672021419, 24: 0.9384203480589023, 35: 0.9611780455153949}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3: 0.49531459170013387, 4: 0.6586345381526104, 5: 0.7630522088353414, 2: 0.24096385542168675, 7: 0.8661311914323963, 1: 0.025435073627844713, 6: 0.8299866131191432, 8: 0.963855421686747, 9: 0.965194109772423}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{24: 0.9284712482468443, 9: 0.7727910238429172, 4: 0.5385694249649369, 6: 0.6619915848527349, 14: 0.879382889200561, 5: 0.6157082748948106, 20: 0.9102384291725105, 12: 0.8359046283309958, 1: 0.13043478260869565, 10: 0.8008415147265077, 2: 0.3085553997194951, 3: 0.426367461430575, 8: 0.729312762973352, 11: 0.820476858345021, 21: 0.9200561009817672, 17: 0.8976157082748948, 32: 0.9453015427769986, 31: 0.9396914446002805, 16: 0.8934081346423562, 22: 0.9242636746143057, 18: 0.9004207573632539, 7: 0.697054698457223, 13: 0.8583450210378681, 27: 0.9340813464235624, 33: 0.9495091164095372, 25: 0.9312762973352033, 19: 0.9046283309957924, 34: 0.9509116409537167, 15: 0.8877980364656382, 30: 0.9368863955119214, 23: 0.9256661991584852, 29: 0.9354838709677419, 60: 0.9551192145862553, 35: 0.9523141654978962, 36: 0.9537166900420757}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.7784011220196353, 6: 0.8457223001402524, 2: 0.28190743338008417, 3: 0.5217391304347826, 4: 0.6718092566619915, 8: 0.9495091164095372, 1: 0.02244039270687237, 7: 0.8653576437587658, 9: 0.9551192145862553}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3: 0.46200607902735563, 4: 0.5638297872340425, 7: 0.7370820668693009, 12: 0.8662613981762918, 26: 0.9544072948328267, 10: 0.8252279635258358, 1: 0.13829787234042554, 15: 0.9027355623100304, 9: 0.7887537993920972, 8: 0.7598784194528876, 2: 0.3221884498480243, 11: 0.8449848024316109, 13: 0.8799392097264438, 6: 0.6975683890577508, 23: 0.952887537993921, 21: 0.9483282674772037, 5: 0.6428571428571429, 17: 0.9148936170212766, 14: 0.8905775075987842, 19: 0.9376899696048632, 18: 0.9285714285714286, 16: 0.9088145896656535, 20: 0.9422492401215805, 33: 0.9604863221884499, 36: 0.9620060790273556, 28: 0.9559270516717325, 37: 0.9635258358662614, 29: 0.9574468085106383, 32: 0.958966565349544}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.6975683890577508, 8: 0.9635258358662614, 2: 0.3069908814589666, 5: 0.7963525835866262, 6: 0.8541033434650456, 3: 0.5501519756838906, 1: 0.025835866261398176, 7: 0.8936170212765957}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 0.1299342105263158, 2: 0.31414473684210525, 4: 0.5838815789473685, 5: 0.649671052631579, 10: 0.8404605263157895, 6: 0.7055921052631579, 8: 0.787828947368421, 9: 0.8223684210526315, 7: 0.743421052631579, 12: 0.868421052631579, 3: 0.45394736842105265, 16: 0.9144736842105263, 15: 0.9078947368421053, 21: 0.9358552631578947, 11: 0.8569078947368421, 33: 0.9539473684210527, 26: 0.9424342105263158, 13: 0.8782894736842105, 14: 0.8980263157894737, 38: 0.9572368421052632, 17: 0.9194078947368421, 30: 0.944078947368421, 32: 0.9490131578947368, 19: 0.9292763157894737, 34: 0.9555921052631579, 18: 0.9210526315789473, 41: 0.9588815789473685, 20: 0.930921052631579, 24: 0.9391447368421053, 22: 0.9375}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.7023026315789473, 7: 0.9013157894736842, 3: 0.5230263157894737, 2: 0.30098684210526316, 5: 0.8075657894736842, 8: 0.9572368421052632, 6: 0.8667763157894737, 1: 0.03453947368421053, 9: 0.9588815789473685}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{1: 0.12007168458781362, 3: 0.4551971326164875, 4: 0.546594982078853, 11: 0.8351254480286738, 5: 0.6254480286738351, 8: 0.7706093189964157, 12: 0.8458781362007168, 2: 0.31899641577060933, 13: 0.8655913978494624, 6: 0.7043010752688172, 7: 0.7347670250896058, 22: 0.9444444444444444, 33: 0.96415770609319, 9: 0.7992831541218638, 17: 0.9157706093189965, 26: 0.953405017921147, 19: 0.931899641577061, 14: 0.8853046594982079, 10: 0.8189964157706093, 37: 0.9659498207885304, 16: 0.9032258064516129, 24: 0.9498207885304659, 18: 0.9283154121863799, 20: 0.9336917562724014, 23: 0.9480286738351255, 21: 0.9408602150537635, 32: 0.9605734767025089, 28: 0.956989247311828, 50: 0.967741935483871, 15: 0.8888888888888888, 25: 0.9516129032258065, 29: 0.9587813620071685}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.8315412186379928, 8: 0.967741935483871, 2: 0.3172043010752688, 3: 0.5412186379928315, 6: 0.8853046594982079, 4: 0.7401433691756273, 1: 0.02867383512544803, 7: 0.9354838709677419}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{8: 0.8942917547568711, 2: 0.40856236786469347, 3: 0.5766384778012685, 9: 0.9175475687103594, 4: 0.678646934460888, 6: 0.8128964059196617, 1: 0.19186046511627908, 5: 0.7536997885835095, 10: 0.9334038054968288, 30: 0.9878435517970402, 7: 0.8588794926004228, 12: 0.9513742071881607, 19: 0.9815010570824524, 13: 0.9619450317124736, 20: 0.983615221987315, 15: 0.9704016913319239, 22: 0.9857293868921776, 14: 0.9667019027484144, 11: 0.9418604651162791, 18: 0.9799154334038055, 16: 0.9730443974630021, 34: 0.9889006342494715, 17: 0.9767441860465116, 33: 0.9883720930232558, 27: 0.9873150105708245, 24: 0.9867864693446089, 21: 0.9841437632135307, 23: 0.9862579281183932}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3: 0.5290697674418605, 1: 0.0412262156448203, 4: 0.7494714587737844, 2: 0.25317124735729385, 5: 0.8699788583509513, 6: 0.928646934460888, 7: 0.952431289640592, 8: 0.9889006342494715}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.89%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (no failure noise)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{10: 0.8292682926829268, 3: 0.5195121951219512, 5: 0.6682926829268293, 2: 0.3780487804878049, 1: 0.17804878048780487, 34: 0.8792682926829268, 6: 0.7097560975609756, 18: 0.8695121951219512, 9: 0.8097560975609757, 4: 0.6036585365853658, 7: 0.7463414634146341, 8: 0.7817073170731708, 69: 0.8817073170731707, 11: 0.8365853658536585, 31: 0.8768292682926829, 12: 0.8439024390243902, 14: 0.8560975609756097, 13: 0.85, 16: 0.8646341463414634, 17: 0.8658536585365854, 15: 0.8621951219512195, 19: 0.8719512195121951, 32: 0.8780487804878049, 25: 0.875609756097561, 21: 0.8731707317073171, 41: 0.8804878048780488}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.3804878048780488, 3: 0.6731707317073171, 4: 0.823170731707317, 1: 0.045121951219512194, 5: 0.8621951219512195, 6: 0.8695121951219512, 7: 0.8780487804878049, 8: 0.8817073170731707}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.17%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2+9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="124">
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>conf_thr</t>
+  </si>
+  <si>
+    <t>iou thr</t>
+  </si>
+  <si>
+    <t>total effective ids</t>
+  </si>
+  <si>
+    <t>need attack ids</t>
+  </si>
+  <si>
+    <t>attack rate</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>avg frame</t>
+  </si>
+  <si>
+    <t>frame dict</t>
+  </si>
+  <si>
+    <t>l2 dict</t>
+  </si>
+  <si>
+    <t>success rate</t>
+  </si>
+  <si>
+    <t>MOT15</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>{37: 0.9524390243902439, 5: 0.6914634146341463, 4: 0.5951219512195122, 2: 0.33902439024390246, 11: 0.8963414634146342, 7: 0.8, 3: 0.4768292682926829, 1: 0.14390243902439023, 12: 0.9048780487804878, 18: 0.9390243902439024, 10: 0.8780487804878049, 20: 0.9463414634146341, 6: 0.75, 14: 0.9207317073170732, 8: 0.8329268292682926, 41: 0.9536585365853658, 9: 0.8609756097560975, 22: 0.95, 13: 0.9158536585365854, 19: 0.9426829268292682, 16: 0.9341463414634147, 15: 0.925609756097561, 21: 0.947560975609756, 25: 0.9512195121951219}</t>
+  </si>
+  <si>
+    <t>{2: 0.22682926829268293, 5: 0.7573170731707317, 3: 0.42317073170731706, 4: 0.6146341463414634, 1: 0.03170731707317073, 7: 0.8853658536585366, 6: 0.8365853658536585, 8: 0.9512195121951219, 9: 0.9536585365853658}</t>
+  </si>
+  <si>
+    <t>MOT17</t>
+  </si>
+  <si>
+    <t>{4: 0.5337423312883436, 3: 0.4343558282208589, 13: 0.8723926380368098, 5: 0.5975460122699386, 14: 0.8871165644171779, 9: 0.7963190184049079, 16: 0.9067484662576687, 7: 0.7128834355828221, 10: 0.8134969325153374, 8: 0.7484662576687117, 1: 0.12147239263803682, 18: 0.9177914110429448, 6: 0.6613496932515337, 2: 0.3079754601226994, 22: 0.9361963190184049, 24: 0.9460122699386503, 26: 0.950920245398773, 11: 0.8441717791411043, 21: 0.9325153374233128, 15: 0.8957055214723927, 25: 0.9484662576687116, 12: 0.8576687116564418, 23: 0.943558282208589, 32: 0.9607361963190184, 19: 0.9202453987730062, 20: 0.9239263803680982, 34: 0.9656441717791411, 27: 0.9521472392638037, 38: 0.9668711656441717, 33: 0.9631901840490797, 54: 0.9693251533742331, 17: 0.9116564417177914, 28: 0.9533742331288344, 41: 0.9680981595092024}</t>
+  </si>
+  <si>
+    <t>{4: 0.652760736196319, 5: 0.7496932515337423, 3: 0.47116564417177914, 8: 0.9631901840490797, 6: 0.8233128834355828, 2: 0.24171779141104294, 1: 0.025766871165644172, 7: 0.8539877300613496, 9: 0.9693251533742331}</t>
+  </si>
+  <si>
+    <t>{5: 0.6, 3: 0.43205128205128207, 6: 0.6730769230769231, 8: 0.7474358974358974, 14: 0.8807692307692307, 4: 0.5294871794871795, 10: 0.8141025641025641, 13: 0.8641025641025641, 7: 0.7141025641025641, 2: 0.2935897435897436, 43: 0.958974358974359, 12: 0.8512820512820513, 1: 0.1141025641025641, 17: 0.9115384615384615, 20: 0.9282051282051282, 11: 0.8384615384615385, 9: 0.7833333333333333, 24: 0.9384615384615385, 15: 0.8884615384615384, 23: 0.9358974358974359, 16: 0.9012820512820513, 25: 0.9435897435897436, 33: 0.9564102564102565, 18: 0.9141025641025641, 19: 0.9179487179487179, 32: 0.9538461538461539, 29: 0.9461538461538461, 21: 0.9307692307692308, 28: 0.9448717948717948, 34: 0.9576923076923077, 22: 0.9333333333333333}</t>
+  </si>
+  <si>
+    <t>{4: 0.6576923076923077, 3: 0.4653846153846154, 5: 0.7782051282051282, 2: 0.24615384615384617, 6: 0.8333333333333334, 1: 0.023076923076923078, 8: 0.9564102564102565, 7: 0.8641025641025641, 9: 0.958974358974359}</t>
+  </si>
+  <si>
+    <t>{7: 0.7309236947791165, 16: 0.9156626506024096, 5: 0.6358768406961178, 6: 0.6867469879518072, 14: 0.8808567603748326, 20: 0.92904953145917, 8: 0.7657295850066934, 3: 0.46987951807228917, 9: 0.8032128514056225, 13: 0.8741633199464525, 42: 0.965194109772423, 39: 0.963855421686747, 1: 0.12985274431057564, 2: 0.32663989290495316, 15: 0.8995983935742972, 4: 0.5662650602409639, 12: 0.8554216867469879, 11: 0.8393574297188755, 31: 0.9504685408299867, 26: 0.9424364123159303, 21: 0.9357429718875502, 32: 0.9585006693440429, 29: 0.9491298527443106, 33: 0.9598393574297188, 28: 0.9464524765729585, 18: 0.9210174029451138, 10: 0.8246318607764391, 38: 0.9625167336010709, 25: 0.9397590361445783, 23: 0.9370816599732262, 19: 0.9250334672021419, 24: 0.9384203480589023, 35: 0.9611780455153949}</t>
+  </si>
+  <si>
+    <t>{3: 0.49531459170013387, 4: 0.6586345381526104, 5: 0.7630522088353414, 2: 0.24096385542168675, 7: 0.8661311914323963, 1: 0.025435073627844713, 6: 0.8299866131191432, 8: 0.963855421686747, 9: 0.965194109772423}</t>
+  </si>
+  <si>
+    <t>{24: 0.9284712482468443, 9: 0.7727910238429172, 4: 0.5385694249649369, 6: 0.6619915848527349, 14: 0.879382889200561, 5: 0.6157082748948106, 20: 0.9102384291725105, 12: 0.8359046283309958, 1: 0.13043478260869565, 10: 0.8008415147265077, 2: 0.3085553997194951, 3: 0.426367461430575, 8: 0.729312762973352, 11: 0.820476858345021, 21: 0.9200561009817672, 17: 0.8976157082748948, 32: 0.9453015427769986, 31: 0.9396914446002805, 16: 0.8934081346423562, 22: 0.9242636746143057, 18: 0.9004207573632539, 7: 0.697054698457223, 13: 0.8583450210378681, 27: 0.9340813464235624, 33: 0.9495091164095372, 25: 0.9312762973352033, 19: 0.9046283309957924, 34: 0.9509116409537167, 15: 0.8877980364656382, 30: 0.9368863955119214, 23: 0.9256661991584852, 29: 0.9354838709677419, 60: 0.9551192145862553, 35: 0.9523141654978962, 36: 0.9537166900420757}</t>
+  </si>
+  <si>
+    <t>{5: 0.7784011220196353, 6: 0.8457223001402524, 2: 0.28190743338008417, 3: 0.5217391304347826, 4: 0.6718092566619915, 8: 0.9495091164095372, 1: 0.02244039270687237, 7: 0.8653576437587658, 9: 0.9551192145862553}</t>
+  </si>
+  <si>
+    <t>{3: 0.46200607902735563, 4: 0.5638297872340425, 7: 0.7370820668693009, 12: 0.8662613981762918, 26: 0.9544072948328267, 10: 0.8252279635258358, 1: 0.13829787234042554, 15: 0.9027355623100304, 9: 0.7887537993920972, 8: 0.7598784194528876, 2: 0.3221884498480243, 11: 0.8449848024316109, 13: 0.8799392097264438, 6: 0.6975683890577508, 23: 0.952887537993921, 21: 0.9483282674772037, 5: 0.6428571428571429, 17: 0.9148936170212766, 14: 0.8905775075987842, 19: 0.9376899696048632, 18: 0.9285714285714286, 16: 0.9088145896656535, 20: 0.9422492401215805, 33: 0.9604863221884499, 36: 0.9620060790273556, 28: 0.9559270516717325, 37: 0.9635258358662614, 29: 0.9574468085106383, 32: 0.958966565349544}</t>
+  </si>
+  <si>
+    <t>{4: 0.6975683890577508, 8: 0.9635258358662614, 2: 0.3069908814589666, 5: 0.7963525835866262, 6: 0.8541033434650456, 3: 0.5501519756838906, 1: 0.025835866261398176, 7: 0.8936170212765957}</t>
+  </si>
+  <si>
+    <t>{1: 0.1299342105263158, 2: 0.31414473684210525, 4: 0.5838815789473685, 5: 0.649671052631579, 10: 0.8404605263157895, 6: 0.7055921052631579, 8: 0.787828947368421, 9: 0.8223684210526315, 7: 0.743421052631579, 12: 0.868421052631579, 3: 0.45394736842105265, 16: 0.9144736842105263, 15: 0.9078947368421053, 21: 0.9358552631578947, 11: 0.8569078947368421, 33: 0.9539473684210527, 26: 0.9424342105263158, 13: 0.8782894736842105, 14: 0.8980263157894737, 38: 0.9572368421052632, 17: 0.9194078947368421, 30: 0.944078947368421, 32: 0.9490131578947368, 19: 0.9292763157894737, 34: 0.9555921052631579, 18: 0.9210526315789473, 41: 0.9588815789473685, 20: 0.930921052631579, 24: 0.9391447368421053, 22: 0.9375}</t>
+  </si>
+  <si>
+    <t>{4: 0.7023026315789473, 7: 0.9013157894736842, 3: 0.5230263157894737, 2: 0.30098684210526316, 5: 0.8075657894736842, 8: 0.9572368421052632, 6: 0.8667763157894737, 1: 0.03453947368421053, 9: 0.9588815789473685}</t>
+  </si>
+  <si>
+    <t>{1: 0.12007168458781362, 3: 0.4551971326164875, 4: 0.546594982078853, 11: 0.8351254480286738, 5: 0.6254480286738351, 8: 0.7706093189964157, 12: 0.8458781362007168, 2: 0.31899641577060933, 13: 0.8655913978494624, 6: 0.7043010752688172, 7: 0.7347670250896058, 22: 0.9444444444444444, 33: 0.96415770609319, 9: 0.7992831541218638, 17: 0.9157706093189965, 26: 0.953405017921147, 19: 0.931899641577061, 14: 0.8853046594982079, 10: 0.8189964157706093, 37: 0.9659498207885304, 16: 0.9032258064516129, 24: 0.9498207885304659, 18: 0.9283154121863799, 20: 0.9336917562724014, 23: 0.9480286738351255, 21: 0.9408602150537635, 32: 0.9605734767025089, 28: 0.956989247311828, 50: 0.967741935483871, 15: 0.8888888888888888, 25: 0.9516129032258065, 29: 0.9587813620071685}</t>
+  </si>
+  <si>
+    <t>{5: 0.8315412186379928, 8: 0.967741935483871, 2: 0.3172043010752688, 3: 0.5412186379928315, 6: 0.8853046594982079, 4: 0.7401433691756273, 1: 0.02867383512544803, 7: 0.9354838709677419}</t>
+  </si>
+  <si>
+    <t>MOT20</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>{8: 0.8942917547568711, 2: 0.40856236786469347, 3: 0.5766384778012685, 9: 0.9175475687103594, 4: 0.678646934460888, 6: 0.8128964059196617, 1: 0.19186046511627908, 5: 0.7536997885835095, 10: 0.9334038054968288, 30: 0.9878435517970402, 7: 0.8588794926004228, 12: 0.9513742071881607, 19: 0.9815010570824524, 13: 0.9619450317124736, 20: 0.983615221987315, 15: 0.9704016913319239, 22: 0.9857293868921776, 14: 0.9667019027484144, 11: 0.9418604651162791, 18: 0.9799154334038055, 16: 0.9730443974630021, 34: 0.9889006342494715, 17: 0.9767441860465116, 33: 0.9883720930232558, 27: 0.9873150105708245, 24: 0.9867864693446089, 21: 0.9841437632135307, 23: 0.9862579281183932}</t>
+  </si>
+  <si>
+    <t>{3: 0.5290697674418605, 1: 0.0412262156448203, 4: 0.7494714587737844, 2: 0.25317124735729385, 5: 0.8699788583509513, 6: 0.928646934460888, 7: 0.952431289640592, 8: 0.9889006342494715}</t>
+  </si>
+  <si>
+    <t>98.89%</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>single (no failure noise)</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>{10: 0.8292682926829268, 3: 0.5195121951219512, 5: 0.6682926829268293, 2: 0.3780487804878049, 1: 0.17804878048780487, 34: 0.8792682926829268, 6: 0.7097560975609756, 18: 0.8695121951219512, 9: 0.8097560975609757, 4: 0.6036585365853658, 7: 0.7463414634146341, 8: 0.7817073170731708, 69: 0.8817073170731707, 11: 0.8365853658536585, 31: 0.8768292682926829, 12: 0.8439024390243902, 14: 0.8560975609756097, 13: 0.85, 16: 0.8646341463414634, 17: 0.8658536585365854, 15: 0.8621951219512195, 19: 0.8719512195121951, 32: 0.8780487804878049, 25: 0.875609756097561, 21: 0.8731707317073171, 41: 0.8804878048780488}</t>
+  </si>
+  <si>
+    <t>{2: 0.3804878048780488, 3: 0.6731707317073171, 4: 0.823170731707317, 1: 0.045121951219512194, 5: 0.8621951219512195, 6: 0.8695121951219512, 7: 0.8780487804878049, 8: 0.8817073170731707}</t>
+  </si>
+  <si>
+    <t>88.17%</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>2+9</t>
   </si>
   <si>
     <t xml:space="preserve">{1: 0.15501519756838905, 11: 0.8115501519756839, 7: 0.7021276595744681, 5: 0.6231003039513677, 10: 0.7933130699088146, 22: 0.9027355623100304, 8: 0.7310030395136778, 4: 0.574468085106383, 2: 0.35106382978723405, 21: 0.8996960486322189, 6: 0.6747720364741642, 14: 0.8495440729483282, 50: 0.9376899696048632, 3: 0.4787234042553192, 9: 0.7537993920972644, 15: 0.8586626139817629, 18: 0.8814589665653495, 43: 0.9346504559270516, 31: 0.9240121580547113, 19: 0.8860182370820668, 26: 0.9148936170212766, 30: 0.9224924012158054, 13: 0.837386018237082, 20: 0.8905775075987842, 12: 0.8221884498480243, 32: 0.9285714285714286, 23: 0.9088145896656535, 42: 0.9331306990881459, 24: 0.9103343465045592, 16: 0.8647416413373861, 33: 0.9300911854103343, 28: 0.9179331306990881, 27: 0.9164133738601824, 57: 0.939209726443769, 17: 0.8677811550151976, 34: 0.9316109422492401, 29: 0.9194528875379939}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{4: 0.8753799392097265, 2: 0.43009118541033436, 3: 0.7006079027355623, 1: 0.03343465045592705, 5: 0.9240121580547113, 6: 0.9316109422492401, 7: 0.9376899696048632, 8: 0.939209726443769}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (no center leaping)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{22: 0.947560975609756, 8: 0.8219512195121951, 2: 0.30853658536585366, 3: 0.4548780487804878, 1: 0.11219512195121951, 11: 0.8951219512195122, 12: 0.9048780487804878, 4: 0.5951219512195122, 5: 0.6707317073170732, 7: 0.7792682926829269, 55: 0.9512195121951219, 6: 0.7341463414634146, 16: 0.9317073170731708, 18: 0.9402439024390243, 28: 0.95, 9: 0.85, 10: 0.875609756097561, 19: 0.9439024390243902, 17: 0.9390243902439024, 15: 0.9231707317073171, 14: 0.9158536585365854, 13: 0.9134146341463415, 20: 0.9451219512195121, 23: 0.948780487804878}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.6780487804878049, 6: 0.42560975609756097, 5: 0.2524390243902439, 3: 0.08780487804878048, 8: 0.9512195121951219, 2: 0.04024390243902439, 4: 0.12804878048780488, 1: 0.003658536585365854}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.5121212121212121, 1: 0.08787878787878788, 31: 0.8742424242424243, 18: 0.793939393939394, 11: 0.6803030303030303, 26: 0.8560606060606061, 14: 0.7303030303030303, 19: 0.8075757575757576, 58: 0.9166666666666666, 2: 0.15606060606060607, 12: 0.7015151515151515, 4: 0.3181818181818182, 16: 0.7621212121212121, 10: 0.646969696969697, 8: 0.5712121212121212, 5: 0.38484848484848483, 17: 0.7742424242424243, 80: 0.9212121212121213, 44: 0.9015151515151515, 6: 0.453030303030303, 21: 0.8272727272727273, 15: 0.7454545454545455, 3: 0.23787878787878788, 24: 0.843939393939394, 22: 0.8348484848484848, 49: 0.9090909090909091, 9: 0.6151515151515151, 13: 0.7121212121212122, 43: 0.9, 35: 0.8878787878787879, 53: 0.9136363636363637, 32: 0.8772727272727273, 70: 0.9181818181818182, 45: 0.9030303030303031, 34: 0.8833333333333333, 37: 0.8939393939393939, 36: 0.8909090909090909, 72: 0.9196969696969697, 28: 0.8606060606060606, 57: 0.9151515151515152, 30: 0.8651515151515151, 99: 0.9242424242424242, 146: 0.9257575757575758, 25: 0.8469696969696969, 33: 0.8803030303030303, 50: 0.9106060606060606, 23: 0.8378787878787879, 20: 0.8121212121212121, 41: 0.896969696969697, 52: 0.9121212121212121, 84: 0.9227272727272727, 46: 0.9045454545454545}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.33181818181818185, 6: 0.5984848484848485, 2: 0.10757575757575757, 7: 0.7696969696969697, 3: 0.19545454545454546, 8: 0.9257575757575758, 5: 0.46060606060606063, 1: 0.024242424242424242}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.58%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (no push pull)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{18: 0.921760391198044, 2: 0.2396088019559902, 8: 0.7872860635696821, 4: 0.5048899755501223, 14: 0.902200488997555, 34: 0.9449877750611247, 5: 0.6112469437652812, 6: 0.6882640586797066, 25: 0.9388753056234719, 1: 0.1136919315403423, 12: 0.882640586797066, 3: 0.39119804400978, 10: 0.8349633251833741, 11: 0.8606356968215159, 27: 0.9400977995110025, 13: 0.89119804400978, 9: 0.8092909535452323, 7: 0.7408312958435208, 16: 0.9144254278728606, 19: 0.9290953545232273, 22: 0.9352078239608802, 33: 0.9437652811735942, 20: 0.9315403422982885, 35: 0.9462102689486552, 21: 0.9327628361858191, 31: 0.9425427872860636, 24: 0.9376528117359413, 38: 0.9474327628361858, 17: 0.9156479217603912, 15: 0.9083129584352079, 30: 0.941320293398533}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.363080684596577, 8: 0.9462102689486552, 6: 0.6943765281173594, 3: 0.22616136919315402, 1: 0.014669926650366748, 2: 0.09657701711491443, 7: 0.8117359413202934, 5: 0.5281173594132029, 9: 0.9474327628361858}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.74%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.40842787682333875, 3: 0.31442463533225284, 2: 0.20097244732576985, 7: 0.6353322528363047, 6: 0.5883306320907618, 1: 0.09724473257698542, 15: 0.8589951377633711, 5: 0.5105348460291734, 8: 0.6758508914100486, 19: 0.8946515397082658, 24: 0.9141004862236629, 33: 0.93354943273906, 10: 0.7504051863857374, 27: 0.9222042139384117, 9: 0.7212317666126418, 40: 0.9481361426256077, 20: 0.899513776337115, 12: 0.8055105348460292, 39: 0.946515397082658, 35: 0.940032414910859, 38: 0.9448946515397083, 13: 0.820097244732577, 16: 0.86709886547812, 14: 0.8476499189627229, 11: 0.7747163695299838, 23: 0.9076175040518638, 17: 0.8752025931928687, 30: 0.9270664505672609, 22: 0.9059967585089141, 18: 0.8816855753646677, 34: 0.9384116693679092, 26: 0.9205834683954619, 31: 0.9303079416531604, 25: 0.9157212317666127, 43: 0.9497568881685575, 32: 0.9319286871961102, 52: 0.9513776337115073, 28: 0.9238249594813615, 53: 0.9529983792544571}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{6: 0.7358184764991896, 4: 0.4376012965964344, 3: 0.26418152350081037, 2: 0.11345218800648298, 5: 0.6175040518638574, 7: 0.8411669367909238, 8: 0.9529983792544571, 1: 0.014586709886547812}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (rand)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{10: 0.05121951219512195, 11: 0.05365853658536585, 8: 0.045121951219512194, 2: 0.012195121951219513, 3: 0.01951219512195122, 4: 0.02195121951219512, 22: 0.07317073170731707, 17: 0.06829268292682927, 7: 0.036585365853658534, 18: 0.06951219512195123, 1: 0.007317073170731708, 12: 0.05609756097560976, 13: 0.05853658536585366, 14: 0.06341463414634146, 23: 0.07560975609756097, 15: 0.06463414634146342, 24: 0.07682926829268293, 6: 0.032926829268292684, 5: 0.025609756097560974, 19: 0.07073170731707316, 26: 0.07926829268292683, 21: 0.07195121951219512, 28: 0.08048780487804878, 25: 0.07804878048780488, 16: 0.06707317073170732, 29: 0.08170731707317073}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.07804878048780488, 6: 0.07073170731707316, 5: 0.03780487804878049, 8: 0.08170731707317073, 4: 0.006097560975609756, 3: 0.0012195121951219512}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple (rand)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{14: 0.034954407294832825, 1: 0.007598784194528876, 6: 0.0243161094224924, 25: 0.0486322188449848, 19: 0.041033434650455926, 4: 0.019756838905775075, 7: 0.02735562310030395, 16: 0.037993920972644375, 3: 0.016717325227963525, 9: 0.030395136778115502, 15: 0.0364741641337386, 23: 0.04559270516717325, 17: 0.03951367781155015, 12: 0.031914893617021274, 8: 0.028875379939209727, 2: 0.010638297872340425, 24: 0.04711246200607903, 21: 0.044072948328267476}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.022796352583586626, 6: 0.0425531914893617, 4: 0.004559270516717325, 7: 0.04711246200607903, 3: 0.00303951367781155, 8: 0.0486322188449848}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{9: 0.10200845665961945, 4: 0.06871035940803383, 7: 0.0919661733615222, 12: 0.11945031712473574, 14: 0.12949260042283298, 27: 0.15274841437632136, 24: 0.15169133192389006, 6: 0.08403805496828752, 3: 0.0554968287526427, 2: 0.04386892177589852, 11: 0.11469344608879492, 10: 0.10940803382663848, 19: 0.1427061310782241, 20: 0.14534883720930233, 1: 0.025898520084566595, 22: 0.14799154334038056, 18: 0.13953488372093023, 5: 0.07610993657505286, 21: 0.14693446088794926, 17: 0.136892177589852, 8: 0.09566596194503171, 23: 0.14957716701902748, 13: 0.12209302325581395, 16: 0.1331923890063425, 29: 0.15380549682875264, 25: 0.1522198731501057, 15: 0.13107822410147993}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single (det)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ByteTrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{3: 0.4911080711354309, 4: 0.6210670314637483, 10: 0.853625170998632, 5: 0.6976744186046512, 9: 0.8344733242134063, 7: 0.7934336525307798, 12: 0.8714090287277702, 2: 0.33652530779753764, 8: 0.8180574555403557, 1: 0.14227086183310533, 6: 0.7578659370725034, 15: 0.8878248974008208, 13: 0.8782489740082079, 11: 0.8604651162790697, 17: 0.893296853625171, 33: 0.9110807113543091, 53: 0.9124487004103967, 32: 0.9097127222982216, 19: 0.8974008207934336, 14: 0.8823529411764706, 23: 0.905608755129959, 27: 0.9069767441860465, 16: 0.8891928864569083, 21: 0.9015047879616963, 20: 0.8987688098495212, 18: 0.8946648426812586}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{9: 0.8919288645690835, 8: 0.7934336525307798, 6: 0.3064295485636115, 7: 0.5690834473324213, 5: 0.12722298221614228, 4: 0.057455540355677154, 3: 0.02051983584131327, 10: 0.9124487004103967, 12: 0.9138166894664843, 2: 0.005471956224350205, 1: 0.0027359781121751026}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.38%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{6: 0.7645390070921986, 12: 0.8808510638297873, 2: 0.30354609929078014, 4: 0.6269503546099291, 3: 0.4921985815602837, 7: 0.8042553191489362, 1: 0.10921985815602837, 9: 0.8539007092198582, 5: 0.700709219858156, 14: 0.8978723404255319, 8: 0.826950354609929, 10: 0.8652482269503546, 27: 0.9205673758865248, 13: 0.8893617021276595, 20: 0.9106382978723404, 11: 0.873758865248227, 16: 0.9049645390070922, 24: 0.9177304964539007, 23: 0.9163120567375886, 19: 0.9078014184397163, 40: 0.9276595744680851, 15: 0.900709219858156, 21: 0.9148936170212766, 26: 0.9191489361702128, 28: 0.9219858156028369, 30: 0.9234042553191489, 33: 0.924822695035461, 17: 0.9063829787234042, 36: 0.926241134751773}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{8: 0.8695035460992908, 7: 0.7092198581560284, 5: 0.2553191489361702, 9: 0.926241134751773, 3: 0.07234042553191489, 4: 0.14184397163120568, 6: 0.4723404255319149, 2: 0.02269503546099291, 1: 0.005673758865248227, 10: 0.9276595744680851, 12: 0.9290780141843972}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.023319615912208505, 9: 0.037037037037037035, 28: 0.05761316872427984, 7: 0.03292181069958848, 15: 0.04526748971193416, 4: 0.01783264746227709, 2: 0.009602194787379973, 8: 0.03566529492455418, 13: 0.04252400548696845, 6: 0.02880658436213992, 18: 0.04663923182441701, 14: 0.0438957475994513, 24: 0.05075445816186557, 1: 0.00411522633744856, 3: 0.012345679012345678, 27: 0.053497942386831275, 20: 0.04801097393689986, 10: 0.038408779149519894, 22: 0.04938271604938271, 26: 0.05212620027434842}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.027434842249657063, 6: 0.05486968449931413, 4: 0.00411522633744856, 7: 0.05898491083676269, 3: 0.0013717421124828531}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{26: 0.045454545454545456, 24: 0.04403409090909091, 9: 0.026988636363636364, 12: 0.032670454545454544, 3: 0.009943181818181818, 10: 0.029829545454545456, 6: 0.02130681818181818, 13: 0.03551136363636364, 1: 0.004261363636363636, 5: 0.019886363636363636, 4: 0.014204545454545454, 7: 0.022727272727272728, 15: 0.03977272727272727, 2: 0.007102272727272727, 8: 0.024147727272727272, 17: 0.041193181818181816, 11: 0.03125, 18: 0.04261363636363636, 14: 0.036931818181818184}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{5: 0.018465909090909092, 6: 0.045454545454545456, 8: 0.046875}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.00702576112412178, 24: 0.03278688524590164, 6: 0.01288056206088993, 26: 0.03571428571428571, 5: 0.009953161592505855, 3: 0.005269320843091335, 10: 0.016978922716627636, 9: 0.01522248243559719, 14: 0.0234192037470726, 25: 0.03454332552693208, 28: 0.03747072599531616, 16: 0.026346604215456676, 13: 0.020491803278688523, 8: 0.013466042154566744, 2: 0.00117096018735363, 15: 0.025175644028103045, 1: 0.000585480093676815, 17: 0.026932084309133488, 12: 0.01873536299765808, 23: 0.03161592505854801, 18: 0.027517564402810304, 22: 0.03044496487119438, 19: 0.02927400468384075, 11: 0.01756440281030445, 20: 0.029859484777517563}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{6: 0.038056206088992975, 5: 0.01639344262295082, 4: 0.00234192037470726, 0: 0.000585480093676815, 7: 0.03864168618266979}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{8: 0.029453015427769985, 18: 0.04207573632538569, 24: 0.04628330995792426, 2: 0.012622720897615708, 20: 0.043478260869565216, 1: 0.008415147265077139, 5: 0.02244039270687237, 13: 0.037868162692847124, 12: 0.0364656381486676, 3: 0.0182328190743338, 11: 0.033660589060308554, 10: 0.03225806451612903, 25: 0.047685834502103785, 7: 0.023842917251051893, 30: 0.04908835904628331, 15: 0.03927068723702665, 4: 0.019635343618513323}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{6: 0.043478260869565216, 5: 0.028050490883590462, 8: 0.04908835904628331, 4: 0.005610098176718092, 7: 0.047685834502103785, 3: 0.001402524544179523}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.08%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.72%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.014814814814814815, 32: 0.04567901234567901, 13: 0.0345679012345679, 1: 0.007407407407407408, 19: 0.040740740740740744, 39: 0.04814814814814815, 12: 0.03209876543209877, 24: 0.043209876543209874, 11: 0.027160493827160494, 15: 0.037037037037037035, 8: 0.022222222222222223, 4: 0.019753086419753086, 18: 0.03827160493827161, 9: 0.02345679012345679, 27: 0.044444444444444446, 3: 0.016049382716049384, 47: 0.04938271604938271}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{7: 0.04814814814814815, 5: 0.020987654320987655, 6: 0.04197530864197531, 4: 0.0012345679012345679, 8: 0.04938271604938271}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.79%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,g1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{2: 0.27349228611500703, 4: 0.5063113604488079, 9: 0.7531556802244039, 6: 0.635343618513324, 39: 0.8920056100981767, 7: 0.6844319775596073, 1: 0.12622720897615708, 3: 0.3884992987377279, 5: 0.5722300140252454, 41: 0.8934081346423562, 12: 0.8064516129032258, 13: 0.8162692847124825, 19: 0.8737727910238429, 17: 0.8625525946704067, 26: 0.8877980364656382, 16: 0.8499298737727911, 20: 0.8779803646563815, 8: 0.7166900420757363, 29: 0.8892005610098177, 25: 0.8863955119214586, 10: 0.7699859747545582, 14: 0.8316970546984572, 18: 0.8667601683029453, 15: 0.8387096774193549, 11: 0.791023842917251, 21: 0.879382889200561, 31: 0.8906030855539971, 23: 0.8807854137447405, 24: 0.8821879382889201}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{9: 0.8681626928471248, 6: 0.5385694249649369, 5: 0.39831697054698456, 4: 0.2496493688639551, 7: 0.6367461430575035, 8: 0.7812061711079944, 1: 0.019635343618513323, 3: 0.12201963534361851, 10: 0.8835904628330996, 2: 0.05750350631136045, 11: 0.8906030855539971, 13: 0.8934081346423562}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.44%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.35555555555555557, 1: 0.09382716049382717, 14: 0.7283950617283951, 20: 0.8061728395061728, 30: 0.8703703703703703, 3: 0.3, 7: 0.528395061728395, 12: 0.6901234567901234, 15: 0.7444444444444445, 2: 0.20123456790123456, 13: 0.7074074074074074, 6: 0.4740740740740741, 8: 0.5753086419753086, 5: 0.4222222222222222, 18: 0.7790123456790123, 19: 0.7901234567901234, 27: 0.8530864197530864, 37: 0.8938271604938272, 21: 0.8135802469135802, 25: 0.8432098765432099, 10: 0.6358024691358025, 22: 0.8246913580246914, 11: 0.662962962962963, 16: 0.7567901234567901, 17: 0.7666666666666667, 29: 0.8654320987654321, 31: 0.8740740740740741, 23: 0.8308641975308642, 40: 0.8962962962962963, 32: 0.8839506172839506, 26: 0.8493827160493828, 28: 0.8580246913580247, 9: 0.6074074074074074, 48: 0.8987654320987655, 35: 0.891358024691358, 33: 0.8876543209876543, 39: 0.8950617283950617, 41: 0.8975308641975308, 51: 0.9012345679012346, 59: 0.9049382716049382, 24: 0.8345679012345679, 34: 0.8901234567901235, 55: 0.9037037037037037}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{4: 0.33827160493827163, 6: 0.6135802469135803, 7: 0.7, 9: 0.8777777777777778, 5: 0.4925925925925926, 3: 0.20493827160493827, 10: 0.8839506172839506, 8: 0.8234567901234567, 11: 0.8925925925925926, 2: 0.08024691358024691, 12: 0.9024691358024691, 1: 0.020987654320987655, 13: 0.9049382716049382}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.49%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.55%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.68%</t>
+    <t>{4: 0.8753799392097265, 2: 0.43009118541033436, 3: 0.7006079027355623, 1: 0.03343465045592705, 5: 0.9240121580547113, 6: 0.9316109422492401, 7: 0.9376899696048632, 8: 0.939209726443769}</t>
+  </si>
+  <si>
+    <t>single (no center leaping)</t>
+  </si>
+  <si>
+    <t>{22: 0.947560975609756, 8: 0.8219512195121951, 2: 0.30853658536585366, 3: 0.4548780487804878, 1: 0.11219512195121951, 11: 0.8951219512195122, 12: 0.9048780487804878, 4: 0.5951219512195122, 5: 0.6707317073170732, 7: 0.7792682926829269, 55: 0.9512195121951219, 6: 0.7341463414634146, 16: 0.9317073170731708, 18: 0.9402439024390243, 28: 0.95, 9: 0.85, 10: 0.875609756097561, 19: 0.9439024390243902, 17: 0.9390243902439024, 15: 0.9231707317073171, 14: 0.9158536585365854, 13: 0.9134146341463415, 20: 0.9451219512195121, 23: 0.948780487804878}</t>
+  </si>
+  <si>
+    <t>{7: 0.6780487804878049, 6: 0.42560975609756097, 5: 0.2524390243902439, 3: 0.08780487804878048, 8: 0.9512195121951219, 2: 0.04024390243902439, 4: 0.12804878048780488, 1: 0.003658536585365854}</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>{7: 0.5121212121212121, 1: 0.08787878787878788, 31: 0.8742424242424243, 18: 0.793939393939394, 11: 0.6803030303030303, 26: 0.8560606060606061, 14: 0.7303030303030303, 19: 0.8075757575757576, 58: 0.9166666666666666, 2: 0.15606060606060607, 12: 0.7015151515151515, 4: 0.3181818181818182, 16: 0.7621212121212121, 10: 0.646969696969697, 8: 0.5712121212121212, 5: 0.38484848484848483, 17: 0.7742424242424243, 80: 0.9212121212121213, 44: 0.9015151515151515, 6: 0.453030303030303, 21: 0.8272727272727273, 15: 0.7454545454545455, 3: 0.23787878787878788, 24: 0.843939393939394, 22: 0.8348484848484848, 49: 0.9090909090909091, 9: 0.6151515151515151, 13: 0.7121212121212122, 43: 0.9, 35: 0.8878787878787879, 53: 0.9136363636363637, 32: 0.8772727272727273, 70: 0.9181818181818182, 45: 0.9030303030303031, 34: 0.8833333333333333, 37: 0.8939393939393939, 36: 0.8909090909090909, 72: 0.9196969696969697, 28: 0.8606060606060606, 57: 0.9151515151515152, 30: 0.8651515151515151, 99: 0.9242424242424242, 146: 0.9257575757575758, 25: 0.8469696969696969, 33: 0.8803030303030303, 50: 0.9106060606060606, 23: 0.8378787878787879, 20: 0.8121212121212121, 41: 0.896969696969697, 52: 0.9121212121212121, 84: 0.9227272727272727, 46: 0.9045454545454545}</t>
+  </si>
+  <si>
+    <t>{4: 0.33181818181818185, 6: 0.5984848484848485, 2: 0.10757575757575757, 7: 0.7696969696969697, 3: 0.19545454545454546, 8: 0.9257575757575758, 5: 0.46060606060606063, 1: 0.024242424242424242}</t>
+  </si>
+  <si>
+    <t>92.58%</t>
+  </si>
+  <si>
+    <t>single (no push pull)</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>{18: 0.921760391198044, 2: 0.2396088019559902, 8: 0.7872860635696821, 4: 0.5048899755501223, 14: 0.902200488997555, 34: 0.9449877750611247, 5: 0.6112469437652812, 6: 0.6882640586797066, 25: 0.9388753056234719, 1: 0.1136919315403423, 12: 0.882640586797066, 3: 0.39119804400978, 10: 0.8349633251833741, 11: 0.8606356968215159, 27: 0.9400977995110025, 13: 0.89119804400978, 9: 0.8092909535452323, 7: 0.7408312958435208, 16: 0.9144254278728606, 19: 0.9290953545232273, 22: 0.9352078239608802, 33: 0.9437652811735942, 20: 0.9315403422982885, 35: 0.9462102689486552, 21: 0.9327628361858191, 31: 0.9425427872860636, 24: 0.9376528117359413, 38: 0.9474327628361858, 17: 0.9156479217603912, 15: 0.9083129584352079, 30: 0.941320293398533}</t>
+  </si>
+  <si>
+    <t>{4: 0.363080684596577, 8: 0.9462102689486552, 6: 0.6943765281173594, 3: 0.22616136919315402, 1: 0.014669926650366748, 2: 0.09657701711491443, 7: 0.8117359413202934, 5: 0.5281173594132029, 9: 0.9474327628361858}</t>
+  </si>
+  <si>
+    <t>94.74%</t>
+  </si>
+  <si>
+    <t>{4: 0.40842787682333875, 3: 0.31442463533225284, 2: 0.20097244732576985, 7: 0.6353322528363047, 6: 0.5883306320907618, 1: 0.09724473257698542, 15: 0.8589951377633711, 5: 0.5105348460291734, 8: 0.6758508914100486, 19: 0.8946515397082658, 24: 0.9141004862236629, 33: 0.93354943273906, 10: 0.7504051863857374, 27: 0.9222042139384117, 9: 0.7212317666126418, 40: 0.9481361426256077, 20: 0.899513776337115, 12: 0.8055105348460292, 39: 0.946515397082658, 35: 0.940032414910859, 38: 0.9448946515397083, 13: 0.820097244732577, 16: 0.86709886547812, 14: 0.8476499189627229, 11: 0.7747163695299838, 23: 0.9076175040518638, 17: 0.8752025931928687, 30: 0.9270664505672609, 22: 0.9059967585089141, 18: 0.8816855753646677, 34: 0.9384116693679092, 26: 0.9205834683954619, 31: 0.9303079416531604, 25: 0.9157212317666127, 43: 0.9497568881685575, 32: 0.9319286871961102, 52: 0.9513776337115073, 28: 0.9238249594813615, 53: 0.9529983792544571}</t>
+  </si>
+  <si>
+    <t>{6: 0.7358184764991896, 4: 0.4376012965964344, 3: 0.26418152350081037, 2: 0.11345218800648298, 5: 0.6175040518638574, 7: 0.8411669367909238, 8: 0.9529983792544571, 1: 0.014586709886547812}</t>
+  </si>
+  <si>
+    <t>single (rand)</t>
+  </si>
+  <si>
+    <t>{10: 0.05121951219512195, 11: 0.05365853658536585, 8: 0.045121951219512194, 2: 0.012195121951219513, 3: 0.01951219512195122, 4: 0.02195121951219512, 22: 0.07317073170731707, 17: 0.06829268292682927, 7: 0.036585365853658534, 18: 0.06951219512195123, 1: 0.007317073170731708, 12: 0.05609756097560976, 13: 0.05853658536585366, 14: 0.06341463414634146, 23: 0.07560975609756097, 15: 0.06463414634146342, 24: 0.07682926829268293, 6: 0.032926829268292684, 5: 0.025609756097560974, 19: 0.07073170731707316, 26: 0.07926829268292683, 21: 0.07195121951219512, 28: 0.08048780487804878, 25: 0.07804878048780488, 16: 0.06707317073170732, 29: 0.08170731707317073}</t>
+  </si>
+  <si>
+    <t>{7: 0.07804878048780488, 6: 0.07073170731707316, 5: 0.03780487804878049, 8: 0.08170731707317073, 4: 0.006097560975609756, 3: 0.0012195121951219512}</t>
+  </si>
+  <si>
+    <t>multiple (rand)</t>
+  </si>
+  <si>
+    <t>{14: 0.034954407294832825, 1: 0.007598784194528876, 6: 0.0243161094224924, 25: 0.0486322188449848, 19: 0.041033434650455926, 4: 0.019756838905775075, 7: 0.02735562310030395, 16: 0.037993920972644375, 3: 0.016717325227963525, 9: 0.030395136778115502, 15: 0.0364741641337386, 23: 0.04559270516717325, 17: 0.03951367781155015, 12: 0.031914893617021274, 8: 0.028875379939209727, 2: 0.010638297872340425, 24: 0.04711246200607903, 21: 0.044072948328267476}</t>
+  </si>
+  <si>
+    <t>{5: 0.022796352583586626, 6: 0.0425531914893617, 4: 0.004559270516717325, 7: 0.04711246200607903, 3: 0.00303951367781155, 8: 0.0486322188449848}</t>
+  </si>
+  <si>
+    <t>{9: 0.10200845665961945, 4: 0.06871035940803383, 7: 0.0919661733615222, 12: 0.11945031712473574, 14: 0.12949260042283298, 27: 0.15274841437632136, 24: 0.15169133192389006, 6: 0.08403805496828752, 3: 0.0554968287526427, 2: 0.04386892177589852, 11: 0.11469344608879492, 10: 0.10940803382663848, 19: 0.1427061310782241, 20: 0.14534883720930233, 1: 0.025898520084566595, 22: 0.14799154334038056, 18: 0.13953488372093023, 5: 0.07610993657505286, 21: 0.14693446088794926, 17: 0.136892177589852, 8: 0.09566596194503171, 23: 0.14957716701902748, 13: 0.12209302325581395, 16: 0.1331923890063425, 29: 0.15380549682875264, 25: 0.1522198731501057, 15: 0.13107822410147993}</t>
+  </si>
+  <si>
+    <t>{7: 0.14482029598308668, 6: 0.12684989429175475, 4: 0.012684989429175475, 5: 0.07029598308668077, 3: 0.0021141649048625794, 8: 0.15380549682875264}</t>
+  </si>
+  <si>
+    <t>single (det)</t>
+  </si>
+  <si>
+    <t>{55: 0.9646341463414634, 2: 0.17073170731707318, 7: 0.5695121951219512, 10: 0.697560975609756, 19: 0.8768292682926829, 11: 0.7390243902439024, 16: 0.848780487804878, 12: 0.7707317073170732, 1: 0.09878048780487805, 27: 0.9195121951219513, 6: 0.5158536585365854, 4: 0.38414634146341464, 9: 0.6658536585365854, 17: 0.8597560975609756, 3: 0.26951219512195124, 8: 0.6012195121951219, 29: 0.9280487804878049, 15: 0.8317073170731707, 20: 0.8829268292682927, 5: 0.4524390243902439, 39: 0.9548780487804878, 117: 0.9719512195121951, 14: 0.8121951219512196, 175: 0.974390243902439, 22: 0.8963414634146342, 23: 0.901219512195122, 35: 0.948780487804878, 124: 0.973170731707317, 13: 0.8036585365853659, 31: 0.9329268292682927, 25: 0.9073170731707317, 43: 0.9585365853658536, 18: 0.8682926829268293, 34: 0.9463414634146341, 32: 0.9378048780487804, 33: 0.9439024390243902, 21: 0.8939024390243903, 65: 0.9670731707317073, 24: 0.9048780487804878, 26: 0.9109756097560976, 51: 0.9621951219512195, 28: 0.9219512195121952, 38: 0.9524390243902439, 37: 0.9512195121951219, 67: 0.9682926829268292, 68: 0.9695121951219512, 30: 0.9292682926829269, 215: 0.975609756097561, 52: 0.9634146341463414, 48: 0.9609756097560975, 45: 0.9597560975609756, 41: 0.9560975609756097, 99: 0.9707317073170731, 59: 0.9658536585365853}</t>
+  </si>
+  <si>
+    <t>{2: 0.8963414634146342, 1: 0.2890243902439024, 3: 0.9609756097560975, 4: 0.9695121951219512, 5: 0.973170731707317, 6: 0.975609756097561}</t>
+  </si>
+  <si>
+    <t>{32: 0.8601823708206687, 61: 0.939209726443769, 31: 0.8419452887537994, 52: 0.9164133738601824, 28: 0.8115501519756839, 12: 0.5638297872340425, 13: 0.5896656534954408, 17: 0.6778115501519757, 22: 0.7553191489361702, 5: 0.303951367781155, 10: 0.4939209726443769, 1: 0.08814589665653495, 4: 0.2507598784194529, 19: 0.7112462006079028, 21: 0.7386018237082067, 11: 0.5243161094224924, 24: 0.770516717325228, 56: 0.9270516717325228, 51: 0.9133738601823708, 27: 0.8054711246200608, 75: 0.9468085106382979, 60: 0.9361702127659575, 33: 0.8647416413373861, 35: 0.8768996960486323, 42: 0.89209726443769, 34: 0.8708206686930091, 14: 0.6170212765957447, 45: 0.898176291793313, 25: 0.78419452887538, 9: 0.4574468085106383, 18: 0.6960486322188449, 6: 0.35714285714285715, 90: 0.952887537993921, 92: 0.9559270516717325, 20: 0.7279635258358662, 3: 0.20364741641337386, 43: 0.8951367781155015, 7: 0.39361702127659576, 53: 0.9194528875379939, 81: 0.9498480243161094, 50: 0.9072948328267477, 78: 0.9483282674772037, 2: 0.1458966565349544, 23: 0.7644376899696048, 116: 0.9620060790273556, 147: 0.9635258358662614, 86: 0.9513677811550152, 59: 0.9316109422492401, 15: 0.6337386018237082, 41: 0.8890577507598785, 69: 0.9422492401215805, 48: 0.9042553191489362, 36: 0.8799392097264438, 29: 0.8206686930091185, 57: 0.9285714285714286, 8: 0.42401215805471126, 16: 0.6519756838905775, 38: 0.8844984802431611, 239: 0.9696048632218845, 30: 0.831306990881459, 183: 0.9665653495440729, 156: 0.9650455927051672, 26: 0.7948328267477204, 65: 0.9407294832826748, 40: 0.8875379939209727, 47: 0.9012158054711246, 39: 0.8860182370820668, 213: 0.9680851063829787, 94: 0.9574468085106383, 54: 0.9224924012158054, 109: 0.958966565349544, 115: 0.9604863221884499, 37: 0.8814589665653495, 58: 0.9300911854103343, 46: 0.8996960486322189, 74: 0.9437689969604863}</t>
+  </si>
+  <si>
+    <t>{2: 0.9483282674772037, 1: 0.30851063829787234, 3: 0.9635258358662614, 4: 0.9680851063829787, 5: 0.9696048632218845}</t>
+  </si>
+  <si>
+    <t>ByteTrack</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>{3: 0.4911080711354309, 4: 0.6210670314637483, 10: 0.853625170998632, 5: 0.6976744186046512, 9: 0.8344733242134063, 7: 0.7934336525307798, 12: 0.8714090287277702, 2: 0.33652530779753764, 8: 0.8180574555403557, 1: 0.14227086183310533, 6: 0.7578659370725034, 15: 0.8878248974008208, 13: 0.8782489740082079, 11: 0.8604651162790697, 17: 0.893296853625171, 33: 0.9110807113543091, 53: 0.9124487004103967, 32: 0.9097127222982216, 19: 0.8974008207934336, 14: 0.8823529411764706, 23: 0.905608755129959, 27: 0.9069767441860465, 16: 0.8891928864569083, 21: 0.9015047879616963, 20: 0.8987688098495212, 18: 0.8946648426812586}</t>
+  </si>
+  <si>
+    <t>{9: 0.8919288645690835, 8: 0.7934336525307798, 6: 0.3064295485636115, 7: 0.5690834473324213, 5: 0.12722298221614228, 4: 0.057455540355677154, 3: 0.02051983584131327, 10: 0.9124487004103967, 12: 0.9138166894664843, 2: 0.005471956224350205, 1: 0.0027359781121751026}</t>
+  </si>
+  <si>
+    <t>91.38%</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>{6: 0.7645390070921986, 12: 0.8808510638297873, 2: 0.30354609929078014, 4: 0.6269503546099291, 3: 0.4921985815602837, 7: 0.8042553191489362, 1: 0.10921985815602837, 9: 0.8539007092198582, 5: 0.700709219858156, 14: 0.8978723404255319, 8: 0.826950354609929, 10: 0.8652482269503546, 27: 0.9205673758865248, 13: 0.8893617021276595, 20: 0.9106382978723404, 11: 0.873758865248227, 16: 0.9049645390070922, 24: 0.9177304964539007, 23: 0.9163120567375886, 19: 0.9078014184397163, 40: 0.9276595744680851, 15: 0.900709219858156, 21: 0.9148936170212766, 26: 0.9191489361702128, 28: 0.9219858156028369, 30: 0.9234042553191489, 33: 0.924822695035461, 17: 0.9063829787234042, 36: 0.926241134751773}</t>
+  </si>
+  <si>
+    <t>{8: 0.8695035460992908, 7: 0.7092198581560284, 5: 0.2553191489361702, 9: 0.926241134751773, 3: 0.07234042553191489, 4: 0.14184397163120568, 6: 0.4723404255319149, 2: 0.02269503546099291, 1: 0.005673758865248227, 10: 0.9276595744680851, 12: 0.9290780141843972}</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>{5: 0.023319615912208505, 9: 0.037037037037037035, 28: 0.05761316872427984, 7: 0.03292181069958848, 15: 0.04526748971193416, 4: 0.01783264746227709, 2: 0.009602194787379973, 8: 0.03566529492455418, 13: 0.04252400548696845, 6: 0.02880658436213992, 18: 0.04663923182441701, 14: 0.0438957475994513, 24: 0.05075445816186557, 1: 0.00411522633744856, 3: 0.012345679012345678, 27: 0.053497942386831275, 20: 0.04801097393689986, 10: 0.038408779149519894, 22: 0.04938271604938271, 26: 0.05212620027434842}</t>
+  </si>
+  <si>
+    <t>{5: 0.027434842249657063, 6: 0.05486968449931413, 4: 0.00411522633744856, 7: 0.05898491083676269, 3: 0.0013717421124828531}</t>
+  </si>
+  <si>
+    <t>5.90%</t>
+  </si>
+  <si>
+    <t>{26: 0.045454545454545456, 24: 0.04403409090909091, 9: 0.026988636363636364, 12: 0.032670454545454544, 3: 0.009943181818181818, 10: 0.029829545454545456, 6: 0.02130681818181818, 13: 0.03551136363636364, 1: 0.004261363636363636, 5: 0.019886363636363636, 4: 0.014204545454545454, 7: 0.022727272727272728, 15: 0.03977272727272727, 2: 0.007102272727272727, 8: 0.024147727272727272, 17: 0.041193181818181816, 11: 0.03125, 18: 0.04261363636363636, 14: 0.036931818181818184}</t>
+  </si>
+  <si>
+    <t>{5: 0.018465909090909092, 6: 0.045454545454545456, 8: 0.046875}</t>
+  </si>
+  <si>
+    <t>{4: 0.00702576112412178, 24: 0.03278688524590164, 6: 0.01288056206088993, 26: 0.03571428571428571, 5: 0.009953161592505855, 3: 0.005269320843091335, 10: 0.016978922716627636, 9: 0.01522248243559719, 14: 0.0234192037470726, 25: 0.03454332552693208, 28: 0.03747072599531616, 16: 0.026346604215456676, 13: 0.020491803278688523, 8: 0.013466042154566744, 2: 0.00117096018735363, 15: 0.025175644028103045, 1: 0.000585480093676815, 17: 0.026932084309133488, 12: 0.01873536299765808, 23: 0.03161592505854801, 18: 0.027517564402810304, 22: 0.03044496487119438, 19: 0.02927400468384075, 11: 0.01756440281030445, 20: 0.029859484777517563}</t>
+  </si>
+  <si>
+    <t>{6: 0.038056206088992975, 5: 0.01639344262295082, 4: 0.00234192037470726, 0: 0.000585480093676815, 7: 0.03864168618266979}</t>
+  </si>
+  <si>
+    <t>JDE</t>
+  </si>
+  <si>
+    <t>{8: 0.029453015427769985, 18: 0.04207573632538569, 24: 0.04628330995792426, 2: 0.012622720897615708, 20: 0.043478260869565216, 1: 0.008415147265077139, 5: 0.02244039270687237, 13: 0.037868162692847124, 12: 0.0364656381486676, 3: 0.0182328190743338, 11: 0.033660589060308554, 10: 0.03225806451612903, 25: 0.047685834502103785, 7: 0.023842917251051893, 30: 0.04908835904628331, 15: 0.03927068723702665, 4: 0.019635343618513323}</t>
+  </si>
+  <si>
+    <t>{6: 0.043478260869565216, 5: 0.028050490883590462, 8: 0.04908835904628331, 4: 0.005610098176718092, 7: 0.047685834502103785, 3: 0.001402524544179523}</t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>82.08%</t>
+  </si>
+  <si>
+    <t>28.72%</t>
+  </si>
+  <si>
+    <t>{2: 0.014814814814814815, 32: 0.04567901234567901, 13: 0.0345679012345679, 1: 0.007407407407407408, 19: 0.040740740740740744, 39: 0.04814814814814815, 12: 0.03209876543209877, 24: 0.043209876543209874, 11: 0.027160493827160494, 15: 0.037037037037037035, 8: 0.022222222222222223, 4: 0.019753086419753086, 18: 0.03827160493827161, 9: 0.02345679012345679, 27: 0.044444444444444446, 3: 0.016049382716049384, 47: 0.04938271604938271}</t>
+  </si>
+  <si>
+    <t>{7: 0.04814814814814815, 5: 0.020987654320987655, 6: 0.04197530864197531, 4: 0.0012345679012345679, 8: 0.04938271604938271}</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>90.79%</t>
+  </si>
+  <si>
+    <t>44.20%</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>66,g1</t>
+  </si>
+  <si>
+    <t>82.10%</t>
+  </si>
+  <si>
+    <t>{2: 0.27349228611500703, 4: 0.5063113604488079, 9: 0.7531556802244039, 6: 0.635343618513324, 39: 0.8920056100981767, 7: 0.6844319775596073, 1: 0.12622720897615708, 3: 0.3884992987377279, 5: 0.5722300140252454, 41: 0.8934081346423562, 12: 0.8064516129032258, 13: 0.8162692847124825, 19: 0.8737727910238429, 17: 0.8625525946704067, 26: 0.8877980364656382, 16: 0.8499298737727911, 20: 0.8779803646563815, 8: 0.7166900420757363, 29: 0.8892005610098177, 25: 0.8863955119214586, 10: 0.7699859747545582, 14: 0.8316970546984572, 18: 0.8667601683029453, 15: 0.8387096774193549, 11: 0.791023842917251, 21: 0.879382889200561, 31: 0.8906030855539971, 23: 0.8807854137447405, 24: 0.8821879382889201}</t>
+  </si>
+  <si>
+    <t>{9: 0.8681626928471248, 6: 0.5385694249649369, 5: 0.39831697054698456, 4: 0.2496493688639551, 7: 0.6367461430575035, 8: 0.7812061711079944, 1: 0.019635343618513323, 3: 0.12201963534361851, 10: 0.8835904628330996, 2: 0.05750350631136045, 11: 0.8906030855539971, 13: 0.8934081346423562}</t>
+  </si>
+  <si>
+    <t>3.98</t>
+  </si>
+  <si>
+    <t>52.44%</t>
+  </si>
+  <si>
+    <t>95.69%</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>9.09</t>
+  </si>
+  <si>
+    <t>{4: 0.35555555555555557, 1: 0.09382716049382717, 14: 0.7283950617283951, 20: 0.8061728395061728, 30: 0.8703703703703703, 3: 0.3, 7: 0.528395061728395, 12: 0.6901234567901234, 15: 0.7444444444444445, 2: 0.20123456790123456, 13: 0.7074074074074074, 6: 0.4740740740740741, 8: 0.5753086419753086, 5: 0.4222222222222222, 18: 0.7790123456790123, 19: 0.7901234567901234, 27: 0.8530864197530864, 37: 0.8938271604938272, 21: 0.8135802469135802, 25: 0.8432098765432099, 10: 0.6358024691358025, 22: 0.8246913580246914, 11: 0.662962962962963, 16: 0.7567901234567901, 17: 0.7666666666666667, 29: 0.8654320987654321, 31: 0.8740740740740741, 23: 0.8308641975308642, 40: 0.8962962962962963, 32: 0.8839506172839506, 26: 0.8493827160493828, 28: 0.8580246913580247, 9: 0.6074074074074074, 48: 0.8987654320987655, 35: 0.891358024691358, 33: 0.8876543209876543, 39: 0.8950617283950617, 41: 0.8975308641975308, 51: 0.9012345679012346, 59: 0.9049382716049382, 24: 0.8345679012345679, 34: 0.8901234567901235, 55: 0.9037037037037037}</t>
+  </si>
+  <si>
+    <t>{4: 0.33827160493827163, 6: 0.6135802469135803, 7: 0.7, 9: 0.8777777777777778, 5: 0.4925925925925926, 3: 0.20493827160493827, 10: 0.8839506172839506, 8: 0.8234567901234567, 11: 0.8925925925925926, 2: 0.08024691358024691, 12: 0.9024691358024691, 1: 0.020987654320987655, 13: 0.9049382716049382}</t>
+  </si>
+  <si>
+    <t>90.49%</t>
+  </si>
+  <si>
+    <t>{7: 0.6842940243257536, 4: 0.47329455314648333, 6: 0.6229508196721312, 13: 0.8635642517186674, 8: 0.7207826546800634, 3: 0.37652035959809627, 18: 0.9090428344791116, 2: 0.2607086197778953, 5: 0.5468006345848757, 11: 0.8175568482284505, 9: 0.7615018508725542, 1: 0.12215758857747223, 37: 0.9502908514013749, 12: 0.8434690639873083, 16: 0.8926493918561608, 10: 0.7884717080909571, 20: 0.925965097831835, 14: 0.8730830248545743, 26: 0.9413008989952406, 15: 0.8810153358011634, 24: 0.9375991538868323, 27: 0.9460602855631941, 19: 0.9196192490745637, 23: 0.9354838709677419, 22: 0.9338974087784241, 17: 0.9016393442622951, 36: 0.9492332099418297, 21: 0.9301956636700158, 25: 0.9397144368059228, 30: 0.9481755684822845, 28: 0.9465891062929667, 32: 0.9487043892120571, 43: 0.9518773135906927, 38: 0.9508196721311475, 42: 0.9513484928609202, 29: 0.9471179270227393}</t>
+  </si>
+  <si>
+    <t>{4: 0.2548915917503966, 3: 0.12797461660497092, 8: 0.8863035430988895, 5: 0.45161290322580644, 7: 0.7503966155473295, 6: 0.6329984135378107, 9: 0.9291380222104707, 1: 0.03120042305658382, 2: 0.07139079851930195, 10: 0.9487043892120571, 11: 0.9518773135906927}</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>80.55%</t>
+  </si>
+  <si>
+    <t>99.68%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="monospace"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Text 1" xfId="20"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Text 1" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="false"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="false"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="true">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="false"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K67" activeCellId="0" sqref="K67"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="G55" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="25.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="3" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12"/>
+    <col min="1" max="1" width="11.0873015873016" style="1" customWidth="true"/>
+    <col min="2" max="3" width="25.2063492063492" style="1" customWidth="true"/>
+    <col min="4" max="4" width="7.11111111111111" style="1" customWidth="true"/>
+    <col min="5" max="5" width="16.8888888888889" style="1" customWidth="true"/>
+    <col min="6" max="6" width="14.6666666666667" style="1" customWidth="true"/>
+    <col min="7" max="7" width="12.547619047619" style="1" customWidth="true"/>
+    <col min="8" max="8" width="21.6111111111111" style="2" customWidth="true"/>
+    <col min="9" max="9" width="9.88888888888889" style="1" customWidth="true"/>
+    <col min="10" max="11" width="33.6190476190476" style="3" customWidth="true"/>
+    <col min="12" max="12" width="12" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,129 +1450,129 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>0.3</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>1038</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>975</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">F2/E2</f>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G8" si="0">F2/E2</f>
         <v>0.939306358381503</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>0.3</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>0.05</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>1038</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>950</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">F3/E3</f>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
         <v>0.915221579961464</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>0.3</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>1038</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>919</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">F4/E4</f>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
         <v>0.885356454720617</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>0.3</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0.15</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>1038</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>869</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">F5/E5</f>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>0.837186897880539</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>0.3</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1">
         <v>1038</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>820</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">F6/E6</f>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
         <v>0.789980732177264</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="2">
         <v>3.55</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="1">
         <v>4.67</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -756,471 +1581,471 @@
       <c r="K6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="5">
         <v>0.9537</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0.3</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>0.25</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>1038</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>749</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">F7/E7</f>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
         <v>0.721579961464355</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>0.3</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>0.3</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>1038</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>676</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">F8/E8</f>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
         <v>0.651252408477842</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>0.4</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>869</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1">
         <v>815</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">F10/E10</f>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G16" si="1">F10/E10</f>
         <v>0.937859608745685</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="2">
         <v>3.56</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>6.17</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="5">
         <v>0.9693</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>0.4</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>0.05</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>869</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1">
         <v>780</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">F11/E11</f>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
         <v>0.897583429228999</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="2">
         <v>3.46</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5">
         <v>0.959</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>0.4</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>0.1</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>869</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1">
         <v>747</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">F12/E12</f>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
         <v>0.859608745684695</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="2">
         <v>3.48</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="1">
         <v>5.86</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="7">
         <v>0.9652</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>0.4</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>0.15</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>869</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1">
         <v>713</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <f aca="false">F13/E13</f>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
         <v>0.8204833141542</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="2">
         <v>3.33</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="1">
         <v>6.19</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="5">
         <v>0.9551</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>0.4</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="D14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="1">
         <v>869</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="1">
         <v>658</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <f aca="false">F14/E14</f>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
         <v>0.757192174913694</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="2">
         <v>3.23</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="1">
         <v>5.61</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5">
         <v>0.9635</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>0.4</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>0.25</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>869</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>608</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <f aca="false">F15/E15</f>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
         <v>0.699654775604143</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="2">
         <v>3.2</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>5.54</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5">
         <v>0.9589</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>0.4</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>0.3</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="1">
         <v>869</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1">
         <v>558</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">F16/E16</f>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
         <v>0.642117376294592</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="4">
         <v>3.08</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="1">
         <v>5.9</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5">
         <v>0.9677</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" ht="14.9" customHeight="true" spans="13:13">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" ht="14.9" customHeight="true" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>0.3</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="1">
         <v>2067</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1">
         <v>2027</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <f aca="false">F18/E18</f>
+      <c r="G18" s="1">
+        <f t="shared" ref="G18:G24" si="2">F18/E18</f>
         <v>0.980648282535075</v>
       </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" ht="14.9" customHeight="true" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>0.3</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>0.05</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="1">
         <v>2067</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1">
         <v>1994</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <f aca="false">F19/E19</f>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
         <v>0.964683115626512</v>
       </c>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" ht="14.9" customHeight="true" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>0.3</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>0.1</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="1">
         <v>2067</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="1">
         <v>1968</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <f aca="false">F20/E20</f>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
         <v>0.952104499274311</v>
       </c>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" ht="14.9" customHeight="true" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>0.3</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>0.15</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="1">
         <v>2067</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1">
         <v>1926</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <f aca="false">F21/E21</f>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
         <v>0.931785195936139</v>
       </c>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" ht="14.9" customHeight="true" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>0.3</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E22" s="1" t="n">
+      <c r="D22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E22" s="1">
         <v>2067</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1">
         <v>1892</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <f aca="false">F22/E22</f>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
         <v>0.915336236090953</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1238,182 +2063,182 @@
       <c r="L22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" ht="14.9" customHeight="true" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>0.3</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>0.25</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="1">
         <v>2067</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1">
         <v>1842</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <f aca="false">F23/E23</f>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
         <v>0.891146589259797</v>
       </c>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" ht="14.9" customHeight="true" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>0.3</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>0.3</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>2067</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>1790</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <f aca="false">F24/E24</f>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
         <v>0.865989356555394</v>
       </c>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>0.3</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="1" t="n">
+      <c r="D27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="1">
         <v>1038</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="1">
         <v>820</v>
       </c>
-      <c r="G27" s="1" t="n">
-        <f aca="false">F27/E27</f>
+      <c r="G27" s="1">
+        <f>F27/E27</f>
         <v>0.789980732177264</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="2">
         <v>2.79</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="5">
         <v>0.3506</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5">
         <v>0.8201</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="1">
         <v>0.4</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E28" s="1" t="n">
+      <c r="D28" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="1">
         <v>869</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="1">
         <v>656</v>
       </c>
-      <c r="G28" s="1" t="n">
-        <f aca="false">F28/E28</f>
+      <c r="G28" s="1">
+        <f>F28/E28</f>
         <v>0.754890678941312</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="2">
         <v>2.71</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="5">
         <v>0.3885</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5">
         <v>0.8195</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="1">
         <v>0.3</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E29" s="1" t="n">
+      <c r="D29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="1">
         <v>2067</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="1">
         <v>1858</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <f aca="false">F29/E29</f>
+      <c r="G29" s="1">
+        <f>F29/E29</f>
         <v>0.898887276245767</v>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="2">
         <v>3.28</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="5">
         <v>0.5435</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5">
         <v>0.8202</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="10:11">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="1">
         <v>0.3</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E32" s="1" t="n">
+      <c r="D32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E32" s="1">
         <v>1038</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="1">
         <v>820</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <f aca="false">F32/E32</f>
+      <c r="G32" s="1">
+        <f>F32/E32</f>
         <v>0.789980732177264</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -1431,100 +2256,100 @@
       <c r="L32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" ht="17.9" customHeight="true" spans="1:13">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="1">
         <v>0.4</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="1" t="n">
+      <c r="D33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="1">
         <v>869</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="1">
         <v>658</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <f aca="false">F33/E33</f>
+      <c r="G33" s="1">
+        <f>F33/E33</f>
         <v>0.757192174913694</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="2">
         <v>2.36</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="1">
         <v>6.1</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5">
         <v>0.9392</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="1">
         <v>0.3</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>0.2</v>
       </c>
       <c r="G34" s="1" t="e">
-        <f aca="false">F34/E34</f>
+        <f>F34/E34</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="1">
         <v>0.3</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="1" t="n">
+      <c r="D37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E37" s="1">
         <v>1038</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="1">
         <v>820</v>
       </c>
-      <c r="G37" s="1" t="n">
-        <f aca="false">F37/E37</f>
+      <c r="G37" s="1">
+        <f>F37/E37</f>
         <v>0.789980732177264</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="2">
         <v>5.74</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="1">
         <v>4.81</v>
       </c>
       <c r="J37" s="3" t="s">
@@ -1533,31 +2358,31 @@
       <c r="K37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5">
         <v>0.9512</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="1">
         <v>0.4</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E38" s="2" t="n">
+      <c r="D38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E38" s="2">
         <v>869</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38" s="1">
         <v>660</v>
       </c>
-      <c r="G38" s="1" t="n">
-        <f aca="false">F38/E38</f>
+      <c r="G38" s="1">
+        <f>F38/E38</f>
         <v>0.759493670886076</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -1566,7 +2391,7 @@
       <c r="I38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>53</v>
       </c>
       <c r="K38" s="3" t="s">
@@ -1576,35 +2401,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="5:10">
       <c r="E39" s="2"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="5:10">
       <c r="E40" s="2"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="1">
         <v>0.3</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E41" s="1" t="n">
+      <c r="D41" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E41" s="1">
         <v>1038</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41" s="1">
         <v>818</v>
       </c>
-      <c r="G41" s="1" t="n">
-        <f aca="false">F41/E41</f>
+      <c r="G41" s="1">
+        <f>F41/E41</f>
         <v>0.788053949903661</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -1623,33 +2448,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="1">
         <v>0.4</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="1" t="n">
+      <c r="D42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E42" s="1">
         <v>869</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42" s="1">
         <v>617</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <f aca="false">F42/E42</f>
+      <c r="G42" s="1">
+        <f>F42/E42</f>
         <v>0.710011507479862</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="2">
         <v>4.31</v>
       </c>
-      <c r="I42" s="1" t="n">
+      <c r="I42" s="1">
         <v>7.48</v>
       </c>
       <c r="J42" s="3" t="s">
@@ -1658,37 +2483,37 @@
       <c r="K42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="L42" s="5">
         <v>0.953</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="1">
         <v>0.3</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E45" s="1" t="n">
+      <c r="D45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="1">
         <v>1038</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45" s="1">
         <v>820</v>
       </c>
-      <c r="G45" s="1" t="n">
-        <f aca="false">F45/E45</f>
+      <c r="G45" s="1">
+        <f t="shared" ref="G45:G50" si="3">F45/E45</f>
         <v>0.789980732177264</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="2">
         <v>5.07</v>
       </c>
-      <c r="I45" s="1" t="n">
+      <c r="I45" s="1">
         <v>9.97</v>
       </c>
       <c r="J45" s="3" t="s">
@@ -1697,71 +2522,71 @@
       <c r="K45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L45" s="4" t="n">
+      <c r="L45" s="5">
         <v>0.0817</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="1">
         <v>0.3</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E46" s="1" t="n">
+      <c r="D46" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="1">
         <v>1038</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46" s="1">
         <v>820</v>
       </c>
-      <c r="G46" s="1" t="n">
-        <f aca="false">F46/E46</f>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
         <v>0.789980732177264</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="2">
         <v>5.03</v>
       </c>
-      <c r="I46" s="4" t="n">
+      <c r="I46" s="5">
         <v>0.8633</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="5">
         <v>0.2732</v>
       </c>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="1">
         <v>0.4</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E47" s="1" t="n">
+      <c r="D47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E47" s="1">
         <v>869</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47" s="1">
         <v>658</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <f aca="false">F47/E47</f>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
         <v>0.757192174913694</v>
       </c>
-      <c r="H47" s="2" t="n">
+      <c r="H47" s="2">
         <v>5.01</v>
       </c>
-      <c r="I47" s="1" t="n">
+      <c r="I47" s="1">
         <v>9.34</v>
       </c>
       <c r="J47" s="3" t="s">
@@ -1770,70 +2595,70 @@
       <c r="K47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L47" s="4" t="n">
+      <c r="L47" s="5">
         <v>0.0486</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="1">
         <v>0.4</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E48" s="1" t="n">
+      <c r="D48" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="1">
         <v>869</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48" s="1">
         <v>656</v>
       </c>
-      <c r="G48" s="1" t="n">
-        <f aca="false">F48/E48</f>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
         <v>0.754890678941312</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="2">
         <v>5.03</v>
       </c>
-      <c r="I48" s="4" t="n">
+      <c r="I48" s="5">
         <v>0.9278</v>
       </c>
-      <c r="L48" s="4" t="n">
+      <c r="L48" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="1">
         <v>0.3</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E49" s="1" t="n">
+      <c r="D49" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E49" s="1">
         <v>2067</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49" s="1">
         <v>1892</v>
       </c>
-      <c r="G49" s="1" t="n">
-        <f aca="false">F49/E49</f>
+      <c r="G49" s="1">
+        <f t="shared" si="3"/>
         <v>0.915336236090953</v>
       </c>
-      <c r="H49" s="2" t="n">
+      <c r="H49" s="2">
         <v>5.18</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="1">
         <v>7.71</v>
       </c>
       <c r="J49" s="3" t="s">
@@ -1842,73 +2667,73 @@
       <c r="K49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L49" s="4" t="n">
+      <c r="L49" s="5">
         <v>0.1538</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="1">
         <v>0.3</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E50" s="1" t="n">
+      <c r="D50" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="1">
         <v>2067</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50" s="1">
         <v>1858</v>
       </c>
-      <c r="G50" s="1" t="n">
-        <f aca="false">F50/E50</f>
+      <c r="G50" s="1">
+        <f t="shared" si="3"/>
         <v>0.898887276245767</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="2">
         <v>5.03</v>
       </c>
-      <c r="I50" s="4" t="n">
+      <c r="I50" s="5">
         <v>0.9889</v>
       </c>
-      <c r="L50" s="4" t="n">
+      <c r="L50" s="5">
         <v>0.6237</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="11:11">
+      <c r="K52" s="8"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="1">
         <v>0.3</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E53" s="1" t="n">
+      <c r="D53" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="1">
         <v>1038</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F53" s="1">
         <v>820</v>
       </c>
-      <c r="G53" s="1" t="n">
-        <f aca="false">F53/E53</f>
+      <c r="G53" s="1">
+        <f>F53/E53</f>
         <v>0.789980732177264</v>
       </c>
-      <c r="H53" s="2" t="n">
+      <c r="H53" s="2">
         <v>1.35</v>
       </c>
-      <c r="I53" s="1" t="n">
+      <c r="I53" s="1">
         <v>9.75</v>
       </c>
       <c r="J53" s="3" t="s">
@@ -1917,37 +2742,37 @@
       <c r="K53" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L53" s="4" t="n">
+      <c r="L53" s="5">
         <v>0.9756</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="1">
         <v>0.4</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E54" s="1" t="n">
+      <c r="D54" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E54" s="1">
         <v>869</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F54" s="1">
         <v>658</v>
       </c>
-      <c r="G54" s="1" t="n">
-        <f aca="false">F54/E54</f>
+      <c r="G54" s="1">
+        <f>F54/E54</f>
         <v>0.757192174913694</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="2">
         <v>1.2</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="1">
         <v>16.87</v>
       </c>
       <c r="J54" s="3" t="s">
@@ -1956,30 +2781,30 @@
       <c r="K54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L54" s="4" t="n">
+      <c r="L54" s="5">
         <v>0.9696</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F59" s="1" t="n">
+      <c r="D59" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="1">
         <v>731</v>
       </c>
       <c r="G59" s="1" t="e">
-        <f aca="false">F59/E59</f>
+        <f>F59/E59</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -1997,31 +2822,31 @@
       <c r="L59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M59" s="6" t="s">
+      <c r="M59" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F60" s="1" t="n">
+      <c r="D60" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F60" s="1">
         <v>705</v>
       </c>
       <c r="G60" s="1" t="e">
-        <f aca="false">F60/E60</f>
+        <f>F60/E60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="2">
         <v>5.76</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60" s="1">
         <v>4.59</v>
       </c>
       <c r="J60" s="3" t="s">
@@ -2030,37 +2855,37 @@
       <c r="K60" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="4" t="n">
+      <c r="L60" s="5">
         <v>0.9291</v>
       </c>
-      <c r="M60" s="6" t="s">
+      <c r="M60" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D61" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F63" s="1" t="n">
+      <c r="D63" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="1">
         <v>729</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -2069,7 +2894,7 @@
       <c r="I63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="11" t="s">
         <v>88</v>
       </c>
       <c r="K63" s="3" t="s">
@@ -2079,23 +2904,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F64" s="1" t="n">
+      <c r="D64" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F64" s="1">
         <v>704</v>
       </c>
-      <c r="H64" s="2" t="n">
+      <c r="H64" s="2">
         <v>5.19</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="I64" s="1">
         <v>8.55</v>
       </c>
       <c r="J64" s="3" t="s">
@@ -2104,27 +2929,27 @@
       <c r="K64" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L64" s="4" t="n">
+      <c r="L64" s="5">
         <v>0.0469</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F65" s="1" t="n">
+      <c r="D65" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F65" s="1">
         <v>1708</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="2">
         <v>4.96</v>
       </c>
-      <c r="I65" s="1" t="n">
+      <c r="I65" s="1">
         <v>12.36</v>
       </c>
       <c r="J65" s="3" t="s">
@@ -2133,32 +2958,32 @@
       <c r="K65" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L65" s="4" t="n">
+      <c r="L65" s="5">
         <v>0.0386</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F71" s="1" t="n">
+      <c r="D71" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="1">
         <v>713</v>
       </c>
-      <c r="H71" s="2" t="n">
+      <c r="H71" s="2">
         <v>4.99</v>
       </c>
-      <c r="I71" s="1" t="n">
+      <c r="I71" s="1">
         <v>9.11</v>
       </c>
       <c r="J71" s="3" t="s">
@@ -2167,24 +2992,24 @@
       <c r="K71" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L71" s="4" t="n">
+      <c r="L71" s="5">
         <v>0.0491</v>
       </c>
-      <c r="M71" s="0" t="s">
+      <c r="M71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F72" s="1" t="n">
+      <c r="D72" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F72" s="1">
         <v>766</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -2196,27 +3021,27 @@
       <c r="L72" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M72" s="0" t="s">
+      <c r="M72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F73" s="1" t="n">
+      <c r="D73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F73" s="1">
         <v>810</v>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="2">
         <v>5.2</v>
       </c>
-      <c r="I73" s="1" t="n">
+      <c r="I73" s="1">
         <v>12.08</v>
       </c>
       <c r="J73" s="3" t="s">
@@ -2225,24 +3050,24 @@
       <c r="K73" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L73" s="4" t="n">
+      <c r="L73" s="5">
         <v>0.0494</v>
       </c>
-      <c r="M73" s="0" t="s">
+      <c r="M73" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F74" s="1" t="n">
+      <c r="D74" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F74" s="1">
         <v>810</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -2254,36 +3079,36 @@
       <c r="L74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="M74" s="0" t="s">
+      <c r="M74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M75" s="0" t="s">
+      <c r="D75" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="M75" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" ht="15.65" customHeight="true" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D76" s="1">
         <v>0.2</v>
       </c>
       <c r="E76" s="14"/>
-      <c r="F76" s="1" t="n">
+      <c r="F76" s="1">
         <v>1872</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -2295,27 +3120,27 @@
       <c r="L76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M76" s="0" t="s">
+      <c r="M76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="true" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="1" customFormat="true" spans="1:12">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F78" s="1" t="n">
+      <c r="D78" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F78" s="1">
         <v>713</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="1">
         <v>5.42</v>
       </c>
-      <c r="I78" s="1" t="n">
+      <c r="I78" s="1">
         <v>5.63</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -2324,18 +3149,18 @@
       <c r="K78" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L78" s="4" t="n">
+      <c r="L78" s="5">
         <v>0.8934</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="1">
         <v>0.2</v>
       </c>
       <c r="H79" s="2" t="s">
@@ -2348,17 +3173,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F80" s="1" t="n">
+      <c r="D80" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F80" s="1">
         <v>810</v>
       </c>
       <c r="H80" s="2" t="s">
@@ -2377,55 +3202,75 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H81" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.5653</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.9754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="18.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H82" s="2">
+        <v>5.17</v>
+      </c>
+      <c r="I82" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0.9519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="D83" s="1">
         <v>0.2</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/paper/attack.xlsx
+++ b/paper/attack.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
   <si>
     <t>dataset</t>
   </si>
@@ -339,7 +339,10 @@
     <t>g2</t>
   </si>
   <si>
-    <t>66,g1</t>
+    <t>{10: 0.1, 8: 0.08265895953757225, 13: 0.11965317919075144, 24: 0.17109826589595376, 6: 0.06069364161849711, 19: 0.15375722543352602, 7: 0.06820809248554913, 17: 0.1439306358381503, 5: 0.04797687861271676, 1: 0.015028901734104046, 26: 0.17861271676300577, 35: 0.2, 42: 0.21098265895953758, 22: 0.1653179190751445, 9: 0.09017341040462427, 4: 0.042196531791907514, 15: 0.13352601156069363, 32: 0.19537572254335261, 2: 0.024277456647398842, 31: 0.19421965317919074, 30: 0.19190751445086704, 3: 0.032947976878612714, 12: 0.11271676300578035, 21: 0.1606936416184971, 25: 0.17341040462427745, 16: 0.14104046242774568, 18: 0.1485549132947977, 47: 0.2138728323699422, 23: 0.16647398843930636, 41: 0.20982658959537573, 27: 0.18208092485549132, 28: 0.1861271676300578, 43: 0.2115606936416185, 34: 0.19826589595375724, 29: 0.19017341040462427, 14: 0.12658959537572254, 11: 0.10404624277456648, 20: 0.15895953757225434, 36: 0.20115606936416186, 37: 0.20404624277456648, 33: 0.19595375722543354, 38: 0.20635838150289018, 44: 0.21213872832369943, 40: 0.20809248554913296, 39: 0.2069364161849711}</t>
+  </si>
+  <si>
+    <t>{7: 0.20404624277456648, 6: 0.19132947976878611, 5: 0.09595375722543352, 3: 0.0023121387283236996, 8: 0.2138728323699422, 4: 0.008670520231213872}</t>
   </si>
   <si>
     <t>82.10%</t>
@@ -396,9 +399,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -449,22 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -480,6 +467,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -487,32 +482,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,6 +496,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -539,8 +518,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,18 +556,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,9 +579,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,7 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,13 +625,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,19 +661,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,25 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,7 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,25 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,15 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -819,21 +813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -845,6 +824,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,6 +871,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -891,126 +894,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1022,7 +1025,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,7 +1398,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="G55" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+      <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91269841269841" defaultRowHeight="18.85"/>
@@ -3083,7 +3086,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -3093,8 +3096,20 @@
       <c r="D75" s="1">
         <v>0.2</v>
       </c>
-      <c r="M75" t="s">
+      <c r="H75" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="I75" s="1">
+        <v>14.49</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>107</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0.2139</v>
       </c>
     </row>
     <row r="76" ht="15.65" customHeight="true" spans="1:13">
@@ -3118,7 +3133,7 @@
         <v>36</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M76" t="s">
         <v>106</v>
@@ -3144,10 +3159,10 @@
         <v>5.63</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L78" s="5">
         <v>0.8934</v>
@@ -3164,13 +3179,13 @@
         <v>0.2</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3187,19 +3202,19 @@
         <v>810</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3239,10 +3254,10 @@
         <v>6.24</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L82" s="5">
         <v>0.9519</v>
@@ -3259,13 +3274,13 @@
         <v>0.2</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
